--- a/example/info/02 processed info.xlsx
+++ b/example/info/02 processed info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,52 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>UPL_0</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UPL_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_0</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>foot correction</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -526,12 +566,40 @@
       <c r="I2" t="n">
         <v>3.175</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0.002486644345176593</v>
+      </c>
+      <c r="K2" t="n">
+        <v>158.406047302999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001167465321559093</v>
+      </c>
+      <c r="M2" t="n">
+        <v>74.37073472538241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>63702.73562050127</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -569,14 +637,38 @@
       <c r="I3" t="n">
         <v>3.175</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>trim at 0.115</t>
+      <c r="J3" t="n">
+        <v>0.003652802999034743</v>
+      </c>
+      <c r="K3" t="n">
+        <v>198.512982112349</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001348872139951843</v>
+      </c>
+      <c r="M3" t="n">
+        <v>73.3049745800319</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54345.38412413871</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
         </is>
       </c>
     </row>
@@ -616,14 +708,38 @@
       <c r="I4" t="n">
         <v>3.175</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
+      <c r="J4" t="n">
+        <v>0.001771310291409529</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.590404178709</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000558242918370003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36.4292608004567</v>
+      </c>
+      <c r="N4" t="n">
+        <v>65257.0047943025</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
         </is>
       </c>
     </row>
@@ -663,12 +779,40 @@
       <c r="I5" t="n">
         <v>3.175</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.003234063939585186</v>
+      </c>
+      <c r="K5" t="n">
+        <v>192.947593520996</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0005903185807671868</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35.2190159803605</v>
+      </c>
+      <c r="N5" t="n">
+        <v>59661.03241166723</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,12 +850,40 @@
       <c r="I6" t="n">
         <v>3.175</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.00381451361088899</v>
+      </c>
+      <c r="K6" t="n">
+        <v>212.461144507981</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0002194805336283908</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.2246477870196</v>
+      </c>
+      <c r="N6" t="n">
+        <v>55698.09579430651</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -749,12 +921,40 @@
       <c r="I7" t="n">
         <v>3.175</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.001422674189591884</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.116005949159</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0005565689981795847</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39.1667084006418</v>
+      </c>
+      <c r="N7" t="n">
+        <v>70371.70329060289</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -792,12 +992,40 @@
       <c r="I8" t="n">
         <v>3.175</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.00215681772142884</v>
+      </c>
+      <c r="K8" t="n">
+        <v>133.484577967839</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0008960826996215408</v>
+      </c>
+      <c r="M8" t="n">
+        <v>55.4581964877506</v>
+      </c>
+      <c r="N8" t="n">
+        <v>61889.59625174473</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -835,12 +1063,44 @@
       <c r="I9" t="n">
         <v>3.175</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.002543036983960566</v>
+      </c>
+      <c r="K9" t="n">
+        <v>153.024416048495</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.001661850474341723</v>
+      </c>
+      <c r="M9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" t="n">
+        <v>60173.88540302405</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00010109965432908</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[0.00643791]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[267.04645153]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -878,12 +1138,40 @@
       <c r="I10" t="n">
         <v>3.175</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.003383981439116137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>183.56403158262</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0005319670038823361</v>
+      </c>
+      <c r="M10" t="n">
+        <v>28.8565435888071</v>
+      </c>
+      <c r="N10" t="n">
+        <v>54244.98771203815</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -921,12 +1209,40 @@
       <c r="I11" t="n">
         <v>3.175</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.003408700883743779</v>
+      </c>
+      <c r="K11" t="n">
+        <v>186.003104711952</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.001751694515012279</v>
+      </c>
+      <c r="M11" t="n">
+        <v>95.5849836672474</v>
+      </c>
+      <c r="N11" t="n">
+        <v>54567.15360359359</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -964,12 +1280,44 @@
       <c r="I12" t="n">
         <v>3.175</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.0035549164044844</v>
+      </c>
+      <c r="K12" t="n">
+        <v>197.823708886257</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00179701231187025</v>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="n">
+        <v>55647.92146355663</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0002137776113950341</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.00663752]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[258.06834779]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1007,12 +1355,40 @@
       <c r="I13" t="n">
         <v>3.175</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.002831397119518019</v>
+      </c>
+      <c r="K13" t="n">
+        <v>164.610840241371</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.002369830775605819</v>
+      </c>
+      <c r="M13" t="n">
+        <v>137.77644701028</v>
+      </c>
+      <c r="N13" t="n">
+        <v>58137.67313198094</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1050,12 +1426,40 @@
       <c r="I14" t="n">
         <v>3.175</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.003337599360594599</v>
+      </c>
+      <c r="K14" t="n">
+        <v>191.93280380166</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.001092961678286598</v>
+      </c>
+      <c r="M14" t="n">
+        <v>62.8521211497185</v>
+      </c>
+      <c r="N14" t="n">
+        <v>57506.24417888996</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1093,12 +1497,40 @@
       <c r="I15" t="n">
         <v>3.175</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.003052171734517982</v>
+      </c>
+      <c r="K15" t="n">
+        <v>179.013564063243</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0007991534053124828</v>
+      </c>
+      <c r="M15" t="n">
+        <v>46.8713138583788</v>
+      </c>
+      <c r="N15" t="n">
+        <v>58651.20957602798</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1136,12 +1568,40 @@
       <c r="I16" t="n">
         <v>3.175</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.0007660653984972492</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56.3769290357358</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0004235744015886492</v>
+      </c>
+      <c r="M16" t="n">
+        <v>31.172043570381</v>
+      </c>
+      <c r="N16" t="n">
+        <v>73592.84095891487</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1179,12 +1639,40 @@
       <c r="I17" t="n">
         <v>3.175</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.002407070069901566</v>
+      </c>
+      <c r="K17" t="n">
+        <v>144.247777516109</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0006398491389772654</v>
+      </c>
+      <c r="M17" t="n">
+        <v>38.3440504691419</v>
+      </c>
+      <c r="N17" t="n">
+        <v>59926.70480174591</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1222,12 +1710,40 @@
       <c r="I18" t="n">
         <v>3.175</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.004564315429236116</v>
+      </c>
+      <c r="K18" t="n">
+        <v>227.601528876447</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.001575554387021716</v>
+      </c>
+      <c r="M18" t="n">
+        <v>78.5656891759014</v>
+      </c>
+      <c r="N18" t="n">
+        <v>49865.42503582808</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1265,12 +1781,40 @@
       <c r="I19" t="n">
         <v>3.175</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.001810033408109702</v>
+      </c>
+      <c r="K19" t="n">
+        <v>102.235369819713</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0006185604438029024</v>
+      </c>
+      <c r="M19" t="n">
+        <v>34.9378942094105</v>
+      </c>
+      <c r="N19" t="n">
+        <v>56482.58720621179</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1308,12 +1852,40 @@
       <c r="I20" t="n">
         <v>3.175</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.002946729411013637</v>
+      </c>
+      <c r="K20" t="n">
+        <v>203.724300085789</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.001213498041939837</v>
+      </c>
+      <c r="M20" t="n">
+        <v>83.8960775718557</v>
+      </c>
+      <c r="N20" t="n">
+        <v>69135.73378144363</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1351,12 +1923,40 @@
       <c r="I21" t="n">
         <v>3.175</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.003099591938447006</v>
+      </c>
+      <c r="K21" t="n">
+        <v>184.962353082935</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.85013895770068e-05</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.87788623789952</v>
+      </c>
+      <c r="N21" t="n">
+        <v>59673.13012680211</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1394,12 +1994,40 @@
       <c r="I22" t="n">
         <v>3.175</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.002538236159027514</v>
+      </c>
+      <c r="K22" t="n">
+        <v>147.650044884146</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0008695210452605129</v>
+      </c>
+      <c r="M22" t="n">
+        <v>50.5803295346691</v>
+      </c>
+      <c r="N22" t="n">
+        <v>58170.33389860614</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1437,12 +2065,40 @@
       <c r="I23" t="n">
         <v>3.175</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.002986865689476005</v>
+      </c>
+      <c r="K23" t="n">
+        <v>176.979439785403</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.001295917891209503</v>
+      </c>
+      <c r="M23" t="n">
+        <v>76.786453171376</v>
+      </c>
+      <c r="N23" t="n">
+        <v>59252.56043784516</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1480,12 +2136,40 @@
       <c r="I24" t="n">
         <v>3.175</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.002913928760891397</v>
+      </c>
+      <c r="K24" t="n">
+        <v>164.528068453978</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0002542523812495404</v>
+      </c>
+      <c r="M24" t="n">
+        <v>14.3557569931856</v>
+      </c>
+      <c r="N24" t="n">
+        <v>56462.62553228906</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1523,12 +2207,40 @@
       <c r="I25" t="n">
         <v>3.175</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.002799291831076681</v>
+      </c>
+      <c r="K25" t="n">
+        <v>166.148394269309</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9.348677992880445e-06</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.554878851791746</v>
+      </c>
+      <c r="N25" t="n">
+        <v>59353.72383286097</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1566,12 +2278,40 @@
       <c r="I26" t="n">
         <v>3.175</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.002342094147758236</v>
+      </c>
+      <c r="K26" t="n">
+        <v>143.264709458966</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.561829182213629e-05</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.01383758295543</v>
+      </c>
+      <c r="N26" t="n">
+        <v>61169.49209582098</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1609,12 +2349,40 @@
       <c r="I27" t="n">
         <v>3.175</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.001877897583312018</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.945593796641</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.202040312191429e-05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.57205730032622</v>
+      </c>
+      <c r="N27" t="n">
+        <v>61209.7245441433</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1652,12 +2420,40 @@
       <c r="I28" t="n">
         <v>3.175</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.003608067645741652</v>
+      </c>
+      <c r="K28" t="n">
+        <v>211.28186215837</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0003993781755485528</v>
+      </c>
+      <c r="M28" t="n">
+        <v>23.3868577089734</v>
+      </c>
+      <c r="N28" t="n">
+        <v>58558.17653744132</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1695,12 +2491,40 @@
       <c r="I29" t="n">
         <v>3.175</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.001648224949389607</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100.820663952542</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0004206924613086712</v>
+      </c>
+      <c r="M29" t="n">
+        <v>25.7334372257117</v>
+      </c>
+      <c r="N29" t="n">
+        <v>61169.23784576812</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1738,12 +2562,40 @@
       <c r="I30" t="n">
         <v>3.175</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.001742321762701669</v>
+      </c>
+      <c r="K30" t="n">
+        <v>117.019256302744</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0006749432958574681</v>
+      </c>
+      <c r="M30" t="n">
+        <v>45.3311002700754</v>
+      </c>
+      <c r="N30" t="n">
+        <v>67162.82767500551</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1781,12 +2633,40 @@
       <c r="I31" t="n">
         <v>3.175</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.003770420637788741</v>
+      </c>
+      <c r="K31" t="n">
+        <v>185.923507771131</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001201807354363141</v>
+      </c>
+      <c r="M31" t="n">
+        <v>59.2624167046206</v>
+      </c>
+      <c r="N31" t="n">
+        <v>49311.07842656266</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1824,12 +2704,40 @@
       <c r="I32" t="n">
         <v>3.175</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.000542026924884292</v>
+      </c>
+      <c r="K32" t="n">
+        <v>46.1272742639521</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.254760559954508e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.62086269641244</v>
+      </c>
+      <c r="N32" t="n">
+        <v>85101.44449705892</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1867,12 +2775,40 @@
       <c r="I33" t="n">
         <v>3.175</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.003575680588424118</v>
+      </c>
+      <c r="K33" t="n">
+        <v>193.34158337017</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.001764194556589218</v>
+      </c>
+      <c r="M33" t="n">
+        <v>95.3922366690816</v>
+      </c>
+      <c r="N33" t="n">
+        <v>54071.26799750867</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1910,12 +2846,40 @@
       <c r="I34" t="n">
         <v>3.175</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.0005830672385619013</v>
+      </c>
+      <c r="K34" t="n">
+        <v>44.360833762824</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0001722150993256013</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13.1024432301733</v>
+      </c>
+      <c r="N34" t="n">
+        <v>76081.84927734443</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1953,12 +2917,40 @@
       <c r="I35" t="n">
         <v>3.175</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.0007326478168975564</v>
+      </c>
+      <c r="K35" t="n">
+        <v>48.1833180137349</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0004947773424867565</v>
+      </c>
+      <c r="M35" t="n">
+        <v>32.5395278457009</v>
+      </c>
+      <c r="N35" t="n">
+        <v>65766.00230349448</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1996,12 +2988,40 @@
       <c r="I36" t="n">
         <v>3.175</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.002594532464993202</v>
+      </c>
+      <c r="K36" t="n">
+        <v>144.025333226662</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0007298762958923019</v>
+      </c>
+      <c r="M36" t="n">
+        <v>40.5162310159823</v>
+      </c>
+      <c r="N36" t="n">
+        <v>55511.09310441385</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2039,12 +3059,40 @@
       <c r="I37" t="n">
         <v>3.175</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.004883037301830246</v>
+      </c>
+      <c r="K37" t="n">
+        <v>218.94767432926</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.002233950269629646</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100.166799037006</v>
+      </c>
+      <c r="N37" t="n">
+        <v>44838.41936804264</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2082,12 +3130,40 @@
       <c r="I38" t="n">
         <v>3.175</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.003201193006741849</v>
+      </c>
+      <c r="K38" t="n">
+        <v>174.581165598501</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0005973992805999482</v>
+      </c>
+      <c r="M38" t="n">
+        <v>32.5799358286726</v>
+      </c>
+      <c r="N38" t="n">
+        <v>54536.28232687803</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2125,12 +3201,40 @@
       <c r="I39" t="n">
         <v>3.175</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.003535944426428289</v>
+      </c>
+      <c r="K39" t="n">
+        <v>176.304083740973</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.001604180994517588</v>
+      </c>
+      <c r="M39" t="n">
+        <v>79.9853239432246</v>
+      </c>
+      <c r="N39" t="n">
+        <v>49860.53582269121</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2168,12 +3272,40 @@
       <c r="I40" t="n">
         <v>3.175</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.002197614221644402</v>
+      </c>
+      <c r="K40" t="n">
+        <v>126.327924989666</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0003662964402999014</v>
+      </c>
+      <c r="M40" t="n">
+        <v>21.056229422998</v>
+      </c>
+      <c r="N40" t="n">
+        <v>57484.122438532</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2211,12 +3343,40 @@
       <c r="I41" t="n">
         <v>3.175</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.002440386540067831</v>
+      </c>
+      <c r="K41" t="n">
+        <v>127.142187354785</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.001272923963641631</v>
+      </c>
+      <c r="M41" t="n">
+        <v>66.3183206498186</v>
+      </c>
+      <c r="N41" t="n">
+        <v>52099.20037964602</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2254,12 +3414,40 @@
       <c r="I42" t="n">
         <v>3.175</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.002919619240649738</v>
+      </c>
+      <c r="K42" t="n">
+        <v>137.914967289347</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0004717993448001379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>22.2865332229986</v>
+      </c>
+      <c r="N42" t="n">
+        <v>47237.31278694243</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2297,12 +3485,40 @@
       <c r="I43" t="n">
         <v>3.175</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.0007756972094795218</v>
+      </c>
+      <c r="K43" t="n">
+        <v>43.69035133474</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0004853675214597392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>27.3378288330787</v>
+      </c>
+      <c r="N43" t="n">
+        <v>56323.97641865361</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2340,12 +3556,40 @@
       <c r="I44" t="n">
         <v>3.175</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.004385461460634597</v>
+      </c>
+      <c r="K44" t="n">
+        <v>190.806708666229</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.002048999318419596</v>
+      </c>
+      <c r="M44" t="n">
+        <v>89.1497552803521</v>
+      </c>
+      <c r="N44" t="n">
+        <v>43508.92383366616</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2383,12 +3627,40 @@
       <c r="I45" t="n">
         <v>3.175</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.002229400711533884</v>
+      </c>
+      <c r="K45" t="n">
+        <v>106.423782753718</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.001046438241381984</v>
+      </c>
+      <c r="M45" t="n">
+        <v>49.9532970855636</v>
+      </c>
+      <c r="N45" t="n">
+        <v>47736.49806565988</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2426,12 +3698,40 @@
       <c r="I46" t="n">
         <v>3.175</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.001642667931312869</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86.96884979516319</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0008846657864568681</v>
+      </c>
+      <c r="M46" t="n">
+        <v>46.8374431829298</v>
+      </c>
+      <c r="N46" t="n">
+        <v>52943.65838484174</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2469,12 +3769,40 @@
       <c r="I47" t="n">
         <v>3.175</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.002029688456395919</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.3135045128474</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0002692857965243188</v>
+      </c>
+      <c r="M47" t="n">
+        <v>13.0435931132256</v>
+      </c>
+      <c r="N47" t="n">
+        <v>48437.73151640273</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2512,14 +3840,38 @@
       <c r="I48" t="n">
         <v>3.175</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
+      <c r="J48" t="n">
+        <v>0.002063402786403701</v>
+      </c>
+      <c r="K48" t="n">
+        <v>107.531322495733</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0004515525620684</v>
+      </c>
+      <c r="M48" t="n">
+        <v>23.5320241377496</v>
+      </c>
+      <c r="N48" t="n">
+        <v>52113.58790648386</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
         </is>
       </c>
     </row>
@@ -2559,12 +3911,40 @@
       <c r="I49" t="n">
         <v>3.175</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.004696947534094185</v>
+      </c>
+      <c r="K49" t="n">
+        <v>214.622689722153</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.001324219784092684</v>
+      </c>
+      <c r="M49" t="n">
+        <v>60.5090028752196</v>
+      </c>
+      <c r="N49" t="n">
+        <v>45694.07858279248</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2602,12 +3982,40 @@
       <c r="I50" t="n">
         <v>3.175</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.002872619939431664</v>
+      </c>
+      <c r="K50" t="n">
+        <v>151.737831510864</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0005664390169995647</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29.9205011226317</v>
+      </c>
+      <c r="N50" t="n">
+        <v>52822.10480683522</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2645,14 +4053,38 @@
       <c r="I51" t="n">
         <v>3.175</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>trim at 0.16</t>
+      <c r="J51" t="n">
+        <v>0.004423947936696039</v>
+      </c>
+      <c r="K51" t="n">
+        <v>179.160245834743</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.002452435642864738</v>
+      </c>
+      <c r="M51" t="n">
+        <v>99.3182964530266</v>
+      </c>
+      <c r="N51" t="n">
+        <v>40497.81968468332</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.673617379884035e-19</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
         </is>
       </c>
     </row>
@@ -2692,14 +4124,38 @@
       <c r="I52" t="n">
         <v>3.175</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
+      <c r="J52" t="n">
+        <v>0.002485691494831069</v>
+      </c>
+      <c r="K52" t="n">
+        <v>134.337541640328</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.001082338208415669</v>
+      </c>
+      <c r="M52" t="n">
+        <v>58.4942477553271</v>
+      </c>
+      <c r="N52" t="n">
+        <v>54044.33410971532</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
         </is>
       </c>
     </row>
@@ -2739,14 +4195,38 @@
       <c r="I53" t="n">
         <v>3.175</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
+      <c r="J53" t="n">
+        <v>0.001228066336613659</v>
+      </c>
+      <c r="K53" t="n">
+        <v>71.2418157261492</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0003861060149173585</v>
+      </c>
+      <c r="M53" t="n">
+        <v>22.3985404903691</v>
+      </c>
+      <c r="N53" t="n">
+        <v>58011.37414335085</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
         </is>
       </c>
     </row>
@@ -2786,14 +4266,42 @@
       <c r="I54" t="n">
         <v>3.175</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
+      <c r="J54" t="n">
+        <v>0.003684993496534412</v>
+      </c>
+      <c r="K54" t="n">
+        <v>162.188065728032</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.002272049722026811</v>
+      </c>
+      <c r="M54" t="n">
+        <v>100</v>
+      </c>
+      <c r="N54" t="n">
+        <v>44013.1212933112</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0009700428058603003</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[0.00634629]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[191.29395231]</t>
         </is>
       </c>
     </row>
@@ -2833,12 +4341,40 @@
       <c r="I55" t="n">
         <v>3.175</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.002787434520705606</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.399409973673</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.000938992202240707</v>
+      </c>
+      <c r="M55" t="n">
+        <v>51.3381952215828</v>
+      </c>
+      <c r="N55" t="n">
+        <v>54673.71837495033</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2876,12 +4412,40 @@
       <c r="I56" t="n">
         <v>3.175</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.002531234604146474</v>
+      </c>
+      <c r="K56" t="n">
+        <v>126.804257125663</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0009362218356743733</v>
+      </c>
+      <c r="M56" t="n">
+        <v>46.9007946489988</v>
+      </c>
+      <c r="N56" t="n">
+        <v>50095.81368631024</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2919,14 +4483,38 @@
       <c r="I57" t="n">
         <v>3.175</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
+      <c r="J57" t="n">
+        <v>0.002571921967269722</v>
+      </c>
+      <c r="K57" t="n">
+        <v>149.984671993292</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.001076732829417522</v>
+      </c>
+      <c r="M57" t="n">
+        <v>62.7909486756447</v>
+      </c>
+      <c r="N57" t="n">
+        <v>58316.18295655812</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
         </is>
       </c>
     </row>
@@ -2966,12 +4554,40 @@
       <c r="I58" t="n">
         <v>3.175</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.003432602724840315</v>
+      </c>
+      <c r="K58" t="n">
+        <v>151.968738810775</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.001448252989332415</v>
+      </c>
+      <c r="M58" t="n">
+        <v>64.1172888068544</v>
+      </c>
+      <c r="N58" t="n">
+        <v>44272.16051279124</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3009,12 +4625,44 @@
       <c r="I59" t="n">
         <v>3.175</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.003679236313318536</v>
+      </c>
+      <c r="K59" t="n">
+        <v>159.315233127494</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.002309406477392016</v>
+      </c>
+      <c r="M59" t="n">
+        <v>100</v>
+      </c>
+      <c r="N59" t="n">
+        <v>43301.16892758039</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0009358046877390854</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[0.00663262]</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>[200.59782047]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3052,12 +4700,40 @@
       <c r="I60" t="n">
         <v>3.175</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.002183439006668277</v>
+      </c>
+      <c r="K60" t="n">
+        <v>114.21692709225</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.001216178373921077</v>
+      </c>
+      <c r="M60" t="n">
+        <v>63.6189773293808</v>
+      </c>
+      <c r="N60" t="n">
+        <v>52310.56454676712</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3095,14 +4771,38 @@
       <c r="I61" t="n">
         <v>3.175</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J61" t="n">
+        <v>0.0009431448108916057</v>
+      </c>
+      <c r="K61" t="n">
+        <v>51.966869050494</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0005060832287942057</v>
+      </c>
+      <c r="M61" t="n">
+        <v>27.8849658882577</v>
+      </c>
+      <c r="N61" t="n">
+        <v>55099.56525272816</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
         </is>
       </c>
     </row>
@@ -3142,14 +4842,42 @@
       <c r="I62" t="n">
         <v>3.175</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>trim at 0.17</t>
+      <c r="J62" t="n">
+        <v>0.003625768647186322</v>
+      </c>
+      <c r="K62" t="n">
+        <v>157.454775694613</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.001727052401804525</v>
+      </c>
+      <c r="M62" t="n">
+        <v>75</v>
+      </c>
+      <c r="N62" t="n">
+        <v>43426.59199086005</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0002559840549039771</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>LPL @ 75</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[0.00632875]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>[187.98306967]</t>
         </is>
       </c>
     </row>
@@ -3189,12 +4917,40 @@
       <c r="I63" t="n">
         <v>3.175</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.002347687751566579</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.321861081836</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.001206472803963879</v>
+      </c>
+      <c r="M63" t="n">
+        <v>61.8332029123926</v>
+      </c>
+      <c r="N63" t="n">
+        <v>51251.21984452443</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3232,12 +4988,40 @@
       <c r="I64" t="n">
         <v>3.175</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.002376444629577968</v>
+      </c>
+      <c r="K64" t="n">
+        <v>117.932091658521</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0007500416501684681</v>
+      </c>
+      <c r="M64" t="n">
+        <v>37.2211409996473</v>
+      </c>
+      <c r="N64" t="n">
+        <v>49625.43212271877</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3275,14 +5059,38 @@
       <c r="I65" t="n">
         <v>3.175</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
+      <c r="J65" t="n">
+        <v>0.002801238875892798</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.529404464271</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0007091321681881983</v>
+      </c>
+      <c r="M65" t="n">
+        <v>34.8154973917735</v>
+      </c>
+      <c r="N65" t="n">
+        <v>49095.9216823086</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
         </is>
       </c>
     </row>
@@ -3322,14 +5130,42 @@
       <c r="I66" t="n">
         <v>3.175</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
+      <c r="J66" t="n">
+        <v>0.002601363834096593</v>
+      </c>
+      <c r="K66" t="n">
+        <v>125.650398590921</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0020703188077945</v>
+      </c>
+      <c r="M66" t="n">
+        <v>100</v>
+      </c>
+      <c r="N66" t="n">
+        <v>48301.73962749703</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0002349608756213551</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[0.00581521]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>[184.28113182]</t>
         </is>
       </c>
     </row>
@@ -3369,12 +5205,40 @@
       <c r="I67" t="n">
         <v>3.175</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.002286106157598223</v>
+      </c>
+      <c r="K67" t="n">
+        <v>96.78575508036739</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.001057175141954723</v>
+      </c>
+      <c r="M67" t="n">
+        <v>44.7571054503344</v>
+      </c>
+      <c r="N67" t="n">
+        <v>42336.50950927417</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3412,12 +5276,44 @@
       <c r="I68" t="n">
         <v>3.175</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.004027151846017032</v>
+      </c>
+      <c r="K68" t="n">
+        <v>165.156659126179</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.002438382967616404</v>
+      </c>
+      <c r="M68" t="n">
+        <v>100</v>
+      </c>
+      <c r="N68" t="n">
+        <v>41010.78515068252</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0009581021085889995</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[0.00699032]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[204.65696578]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3455,12 +5351,40 @@
       <c r="I69" t="n">
         <v>3.175</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.004318579631240168</v>
+      </c>
+      <c r="K69" t="n">
+        <v>188.358407583882</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.001009341110338468</v>
+      </c>
+      <c r="M69" t="n">
+        <v>44.0232438640259</v>
+      </c>
+      <c r="N69" t="n">
+        <v>43615.8236428747</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3498,12 +5422,40 @@
       <c r="I70" t="n">
         <v>3.175</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.004512857274977415</v>
+      </c>
+      <c r="K70" t="n">
+        <v>178.246468462332</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.002002363297588115</v>
+      </c>
+      <c r="M70" t="n">
+        <v>79.088294760099</v>
+      </c>
+      <c r="N70" t="n">
+        <v>39497.47523606849</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3541,14 +5493,38 @@
       <c r="I71" t="n">
         <v>3.175</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
+      <c r="J71" t="n">
+        <v>0.002394123425083844</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.5786348354455</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0007743519844788434</v>
+      </c>
+      <c r="M71" t="n">
+        <v>28.9731903230109</v>
+      </c>
+      <c r="N71" t="n">
+        <v>37416.04709970556</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
         </is>
       </c>
     </row>
@@ -3588,14 +5564,38 @@
       <c r="I72" t="n">
         <v>3.175</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
+      <c r="J72" t="n">
+        <v>0.002247436524562911</v>
+      </c>
+      <c r="K72" t="n">
+        <v>94.7858175387026</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.001122998209341511</v>
+      </c>
+      <c r="M72" t="n">
+        <v>47.3625404782615</v>
+      </c>
+      <c r="N72" t="n">
+        <v>42175.08103243844</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
         </is>
       </c>
     </row>
@@ -3635,14 +5635,38 @@
       <c r="I73" t="n">
         <v>3.175</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>trim at 0.09</t>
+      <c r="J73" t="n">
+        <v>0.003379981590037871</v>
+      </c>
+      <c r="K73" t="n">
+        <v>117.984652395155</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.001742125797689571</v>
+      </c>
+      <c r="M73" t="n">
+        <v>60.8121971062964</v>
+      </c>
+      <c r="N73" t="n">
+        <v>34906.89202062578</v>
+      </c>
+      <c r="O73" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
         </is>
       </c>
     </row>
@@ -3682,14 +5706,38 @@
       <c r="I74" t="n">
         <v>3.175</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>trim at 0.11</t>
+      <c r="J74" t="n">
+        <v>0.002353998885612358</v>
+      </c>
+      <c r="K74" t="n">
+        <v>89.70936921435261</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.001305101309399858</v>
+      </c>
+      <c r="M74" t="n">
+        <v>49.7365635738737</v>
+      </c>
+      <c r="N74" t="n">
+        <v>38109.35075740957</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
         </is>
       </c>
     </row>
@@ -3729,14 +5777,38 @@
       <c r="I75" t="n">
         <v>3.175</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J75" t="n">
+        <v>0.0008661956129445198</v>
+      </c>
+      <c r="K75" t="n">
+        <v>46.6700725180651</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0004282357690355198</v>
+      </c>
+      <c r="M75" t="n">
+        <v>23.0730727529062</v>
+      </c>
+      <c r="N75" t="n">
+        <v>53879.36837894645</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.084202172485504e-19</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
         </is>
       </c>
     </row>
@@ -3776,14 +5848,38 @@
       <c r="I76" t="n">
         <v>3.175</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
+      <c r="J76" t="n">
+        <v>0.002126363259529328</v>
+      </c>
+      <c r="K76" t="n">
+        <v>79.6278853066987</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.001482544388101528</v>
+      </c>
+      <c r="M76" t="n">
+        <v>55.5182064817886</v>
+      </c>
+      <c r="N76" t="n">
+        <v>37447.92191543245</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
         </is>
       </c>
     </row>
@@ -3823,14 +5919,38 @@
       <c r="I77" t="n">
         <v>3.175</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
+      <c r="J77" t="n">
+        <v>0.001798177991279841</v>
+      </c>
+      <c r="K77" t="n">
+        <v>70.2101465114052</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0009939696897874404</v>
+      </c>
+      <c r="M77" t="n">
+        <v>38.8097050938778</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39045.15951807063</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
         </is>
       </c>
     </row>
@@ -3870,12 +5990,40 @@
       <c r="I78" t="n">
         <v>3.175</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.002908448967036806</v>
+      </c>
+      <c r="K78" t="n">
+        <v>110.081902277342</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0004249535703063055</v>
+      </c>
+      <c r="M78" t="n">
+        <v>16.0840702137286</v>
+      </c>
+      <c r="N78" t="n">
+        <v>37849.00595642768</v>
+      </c>
+      <c r="O78" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3913,14 +6061,38 @@
       <c r="I79" t="n">
         <v>3.175</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>trim at 0.05</t>
+      <c r="J79" t="n">
+        <v>0.001390335852471714</v>
+      </c>
+      <c r="K79" t="n">
+        <v>60.0918208946391</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0008311687471325139</v>
+      </c>
+      <c r="M79" t="n">
+        <v>35.9240131779057</v>
+      </c>
+      <c r="N79" t="n">
+        <v>43221.08272458697</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
         </is>
       </c>
     </row>
@@ -3960,14 +6132,38 @@
       <c r="I80" t="n">
         <v>3.175</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J80" t="n">
+        <v>0.003356995818494748</v>
+      </c>
+      <c r="K80" t="n">
+        <v>119.090300315133</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0003564904747817478</v>
+      </c>
+      <c r="M80" t="n">
+        <v>12.64659236909</v>
+      </c>
+      <c r="N80" t="n">
+        <v>35475.26024876975</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
         </is>
       </c>
     </row>
@@ -4007,12 +6203,40 @@
       <c r="I81" t="n">
         <v>3.175</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.002644959504997883</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.716025680978</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0006753540432521837</v>
+      </c>
+      <c r="M81" t="n">
+        <v>29.5464961429663</v>
+      </c>
+      <c r="N81" t="n">
+        <v>43749.63981955958</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4050,12 +6274,40 @@
       <c r="I82" t="n">
         <v>3.175</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.000916007180450091</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.099975477242</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0003289580731545218</v>
+      </c>
+      <c r="M82" t="n">
+        <v>15.4781372773018</v>
+      </c>
+      <c r="N82" t="n">
+        <v>47052.00613827537</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4093,14 +6345,38 @@
       <c r="I83" t="n">
         <v>3.175</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
+      <c r="J83" t="n">
+        <v>0.001611940297469171</v>
+      </c>
+      <c r="K83" t="n">
+        <v>51.7861136852212</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0008208543378776717</v>
+      </c>
+      <c r="M83" t="n">
+        <v>26.3712347951603</v>
+      </c>
+      <c r="N83" t="n">
+        <v>32126.57054763632</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
         </is>
       </c>
     </row>
@@ -4140,14 +6416,42 @@
       <c r="I84" t="n">
         <v>3.175</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
+      <c r="J84" t="n">
+        <v>0.001344874682175612</v>
+      </c>
+      <c r="K84" t="n">
+        <v>56.7732969744529</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0007106552308107725</v>
+      </c>
+      <c r="M84" t="n">
+        <v>30</v>
+      </c>
+      <c r="N84" t="n">
+        <v>42214.56298263449</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0003903194479702745</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>[0.00364606]</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>[69.48773288]</t>
         </is>
       </c>
     </row>
@@ -4187,14 +6491,38 @@
       <c r="I85" t="n">
         <v>3.175</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
+      <c r="J85" t="n">
+        <v>0.001133706609370434</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.9308587258361</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2.996225910133367e-05</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.50460191896753</v>
+      </c>
+      <c r="N85" t="n">
+        <v>50216.57124981459</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
         </is>
       </c>
     </row>
@@ -4234,14 +6562,38 @@
       <c r="I86" t="n">
         <v>3.175</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>trim at 0.125</t>
+      <c r="J86" t="n">
+        <v>0.001067499811414395</v>
+      </c>
+      <c r="K86" t="n">
+        <v>57.0351509504363</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0006235740665684951</v>
+      </c>
+      <c r="M86" t="n">
+        <v>33.316765619273</v>
+      </c>
+      <c r="N86" t="n">
+        <v>53428.72227290324</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
         </is>
       </c>
     </row>
@@ -4281,14 +6633,38 @@
       <c r="I87" t="n">
         <v>3.175</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
+      <c r="J87" t="n">
+        <v>0.001197085137900995</v>
+      </c>
+      <c r="K87" t="n">
+        <v>51.8909929303517</v>
+      </c>
+      <c r="L87" t="n">
+        <v>8.908567772309599e-05</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.86166708328733</v>
+      </c>
+      <c r="N87" t="n">
+        <v>43347.78812920433</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
         </is>
       </c>
     </row>
@@ -4328,14 +6704,38 @@
       <c r="I88" t="n">
         <v>3.175</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
+      <c r="J88" t="n">
+        <v>0.0007068327420114108</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43.4660299348499</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0004030275041435108</v>
+      </c>
+      <c r="M88" t="n">
+        <v>24.7838060102016</v>
+      </c>
+      <c r="N88" t="n">
+        <v>61494.08106245905</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
         </is>
       </c>
     </row>
@@ -4375,14 +6775,38 @@
       <c r="I89" t="n">
         <v>3.175</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J89" t="n">
+        <v>0.001528765867839196</v>
+      </c>
+      <c r="K89" t="n">
+        <v>61.7681774556576</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0002320617808629959</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9.37621225235857</v>
+      </c>
+      <c r="N89" t="n">
+        <v>40403.9485411606</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
         </is>
       </c>
     </row>
@@ -4422,14 +6846,38 @@
       <c r="I90" t="n">
         <v>3.175</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J90" t="n">
+        <v>0.001342796750131465</v>
+      </c>
+      <c r="K90" t="n">
+        <v>56.27423602054</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0009467802092584651</v>
+      </c>
+      <c r="M90" t="n">
+        <v>39.677883454939</v>
+      </c>
+      <c r="N90" t="n">
+        <v>41908.23072444175</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
         </is>
       </c>
     </row>
@@ -4469,12 +6917,40 @@
       <c r="I91" t="n">
         <v>3.175</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.0007534672376625887</v>
+      </c>
+      <c r="K91" t="n">
+        <v>40.9703547439299</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0006351934706628887</v>
+      </c>
+      <c r="M91" t="n">
+        <v>34.5391286087219</v>
+      </c>
+      <c r="N91" t="n">
+        <v>54375.76140805859</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4512,14 +6988,38 @@
       <c r="I92" t="n">
         <v>3.175</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
+      <c r="J92" t="n">
+        <v>0.001236940839766448</v>
+      </c>
+      <c r="K92" t="n">
+        <v>54.103419580053</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0001282871298544485</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5.61124040058898</v>
+      </c>
+      <c r="N92" t="n">
+        <v>43739.69865063918</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
         </is>
       </c>
     </row>
@@ -4559,12 +7059,44 @@
       <c r="I93" t="n">
         <v>3.175</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.001651260676033587</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.9553327522687</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0007398637008391106</v>
+      </c>
+      <c r="M93" t="n">
+        <v>30</v>
+      </c>
+      <c r="N93" t="n">
+        <v>40548.00899946268</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.0006562035763067763</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>[0.00404133]</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>[82.77179247]</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4602,12 +7134,40 @@
       <c r="I94" t="n">
         <v>3.175</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.000950103311477327</v>
+      </c>
+      <c r="K94" t="n">
+        <v>43.0868710364167</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.835712248292705e-05</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.73948282232606</v>
+      </c>
+      <c r="N94" t="n">
+        <v>45349.66936324052</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4645,14 +7205,38 @@
       <c r="I95" t="n">
         <v>3.175</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
+      <c r="J95" t="n">
+        <v>0.00131027395965521</v>
+      </c>
+      <c r="K95" t="n">
+        <v>59.7216564670194</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2.030809767081075e-05</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9256333178703851</v>
+      </c>
+      <c r="N95" t="n">
+        <v>45579.5187158682</v>
+      </c>
+      <c r="O95" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
         </is>
       </c>
     </row>
@@ -4692,14 +7276,38 @@
       <c r="I96" t="n">
         <v>3.175</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
+      <c r="J96" t="n">
+        <v>0.0007541473740330103</v>
+      </c>
+      <c r="K96" t="n">
+        <v>54.0681392270688</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0004594203600666103</v>
+      </c>
+      <c r="M96" t="n">
+        <v>32.9378644640673</v>
+      </c>
+      <c r="N96" t="n">
+        <v>71694.39434354132</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
         </is>
       </c>
     </row>
@@ -4739,14 +7347,38 @@
       <c r="I97" t="n">
         <v>3.175</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
+      <c r="J97" t="n">
+        <v>0.000948348554995344</v>
+      </c>
+      <c r="K97" t="n">
+        <v>41.4568277525965</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.000656170014276044</v>
+      </c>
+      <c r="M97" t="n">
+        <v>28.6843134994752</v>
+      </c>
+      <c r="N97" t="n">
+        <v>43714.75818065652</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
         </is>
       </c>
     </row>
@@ -4786,12 +7418,40 @@
       <c r="I98" t="n">
         <v>3.175</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.001152142993344857</v>
+      </c>
+      <c r="K98" t="n">
+        <v>55.1712364974773</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0006578419678800564</v>
+      </c>
+      <c r="M98" t="n">
+        <v>31.5012589561555</v>
+      </c>
+      <c r="N98" t="n">
+        <v>47885.75447332828</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4829,14 +7489,42 @@
       <c r="I99" t="n">
         <v>3.175</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
+      <c r="J99" t="n">
+        <v>0.002685416160155546</v>
+      </c>
+      <c r="K99" t="n">
+        <v>71.69828730701499</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.001123631928050032</v>
+      </c>
+      <c r="M99" t="n">
+        <v>30</v>
+      </c>
+      <c r="N99" t="n">
+        <v>26699.1345218024</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0002674287413347199</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[0.00526576]</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>[87.19286708]</t>
         </is>
       </c>
     </row>
@@ -4876,12 +7564,44 @@
       <c r="I100" t="n">
         <v>3.175</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.002642795109135915</v>
+      </c>
+      <c r="K100" t="n">
+        <v>77.33133438958311</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.001025248741663475</v>
+      </c>
+      <c r="M100" t="n">
+        <v>30</v>
+      </c>
+      <c r="N100" t="n">
+        <v>29261.19172926245</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.001375693056716632</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[0.00502987]</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>[88.65760866]</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4919,14 +7639,38 @@
       <c r="I101" t="n">
         <v>3.175</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>trim at 0.12</t>
+      <c r="J101" t="n">
+        <v>0.002103394436134739</v>
+      </c>
+      <c r="K101" t="n">
+        <v>69.8810427182453</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.001217403133788339</v>
+      </c>
+      <c r="M101" t="n">
+        <v>40.4457665838092</v>
+      </c>
+      <c r="N101" t="n">
+        <v>33222.98543617944</v>
+      </c>
+      <c r="O101" t="n">
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
         </is>
       </c>
     </row>

--- a/example/info/02 processed info.xlsx
+++ b/example/info/02 processed info.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_0</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -579,27 +579,27 @@
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050127</v>
+        <v>63702.73562050128</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,20 +657,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -709,39 +709,39 @@
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001771310291409529</v>
+        <v>0.001771310291409491</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000558242918370003</v>
+        <v>0.0005582429183699906</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>65257.0047943025</v>
+        <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -799,20 +799,20 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -857,7 +857,7 @@
         <v>212.461144507981</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002194805336283908</v>
+        <v>0.0002194805336283906</v>
       </c>
       <c r="M6" t="n">
         <v>12.2246477870196</v>
@@ -870,20 +870,20 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -928,7 +928,7 @@
         <v>100.116005949159</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005565689981795847</v>
+        <v>0.0005565689981795848</v>
       </c>
       <c r="M7" t="n">
         <v>39.1667084006418</v>
@@ -941,20 +941,20 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,20 +1012,20 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1079,26 +1079,26 @@
         <v>60173.88540302405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00010109965432908</v>
+        <v>0.0001010996543290804</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00643791]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>[267.04645153]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
         </is>
       </c>
     </row>
@@ -1158,20 +1158,20 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>[0.00687551]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[264.47172192]</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[nan]</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>[nan]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,20 +1229,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663752]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>[258.06834779]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
         </is>
       </c>
     </row>
@@ -1375,20 +1375,20 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1427,7 +1427,7 @@
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003337599360594599</v>
+        <v>0.003337599360594598</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
@@ -1439,27 +1439,27 @@
         <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>57506.24417888996</v>
+        <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1517,20 +1517,20 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,20 +1588,20 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1640,39 +1640,39 @@
         <v>3.175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002407070069901566</v>
+        <v>0.002407070069901567</v>
       </c>
       <c r="K17" t="n">
         <v>144.247777516109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006398491389772654</v>
+        <v>0.0006398491389772661</v>
       </c>
       <c r="M17" t="n">
         <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>59926.70480174591</v>
+        <v>59926.70480174589</v>
       </c>
       <c r="O17" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1801,20 +1801,20 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1872,20 +1872,20 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1924,39 +1924,39 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938447006</v>
+        <v>0.003099591938446999</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.85013895770068e-05</v>
+        <v>9.850138957700593e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680211</v>
+        <v>59673.13012680225</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2001,7 +2001,7 @@
         <v>147.650044884146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008695210452605129</v>
+        <v>0.0008695210452605132</v>
       </c>
       <c r="M22" t="n">
         <v>50.5803295346691</v>
@@ -2014,20 +2014,20 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2066,39 +2066,39 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002986865689476005</v>
+        <v>0.002986865689476004</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001295917891209503</v>
+        <v>0.001295917891209504</v>
       </c>
       <c r="M23" t="n">
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784516</v>
+        <v>59252.56043784517</v>
       </c>
       <c r="O23" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2137,39 +2137,39 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891397</v>
+        <v>0.002913928760891336</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495404</v>
+        <v>0.0002542523812495351</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553228906</v>
+        <v>56462.62553229024</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2208,39 +2208,39 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002799291831076681</v>
+        <v>0.002799291831076499</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
       </c>
       <c r="L25" t="n">
-        <v>9.348677992880445e-06</v>
+        <v>9.34867799287871e-06</v>
       </c>
       <c r="M25" t="n">
         <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286097</v>
+        <v>59353.72383286482</v>
       </c>
       <c r="O25" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2279,39 +2279,39 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147758236</v>
+        <v>0.002342094147758199</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213629e-05</v>
+        <v>6.561829182213455e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582098</v>
+        <v>61169.49209582195</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2350,39 +2350,39 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583312018</v>
+        <v>0.001877897583311999</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191429e-05</v>
+        <v>4.202040312191342e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.7245441433</v>
+        <v>61209.72454414391</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2427,7 +2427,7 @@
         <v>211.28186215837</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003993781755485528</v>
+        <v>0.0003993781755485529</v>
       </c>
       <c r="M28" t="n">
         <v>23.3868577089734</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2492,39 +2492,39 @@
         <v>3.175</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001648224949389607</v>
+        <v>0.001648224949389693</v>
       </c>
       <c r="K29" t="n">
         <v>100.820663952542</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004206924613086712</v>
+        <v>0.000420692461308693</v>
       </c>
       <c r="M29" t="n">
         <v>25.7334372257117</v>
       </c>
       <c r="N29" t="n">
-        <v>61169.23784576812</v>
+        <v>61169.23784576494</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2582,20 +2582,20 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2634,39 +2634,39 @@
         <v>3.175</v>
       </c>
       <c r="J31" t="n">
-        <v>0.003770420637788741</v>
+        <v>0.00377042063778874</v>
       </c>
       <c r="K31" t="n">
         <v>185.923507771131</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001201807354363141</v>
+        <v>0.00120180735436314</v>
       </c>
       <c r="M31" t="n">
         <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>49311.07842656266</v>
+        <v>49311.07842656267</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2705,39 +2705,39 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000542026924884292</v>
+        <v>0.0005420269248841921</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559954508e-05</v>
+        <v>4.254760559953716e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449705892</v>
+        <v>85101.44449707461</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2795,20 +2795,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2866,20 +2866,20 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2937,20 +2937,20 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2995,33 +2995,33 @@
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923019</v>
+        <v>0.0007298762958923013</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441385</v>
+        <v>55511.09310441386</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3079,20 +3079,20 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3137,7 +3137,7 @@
         <v>174.581165598501</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005973992805999482</v>
+        <v>0.0005973992805999483</v>
       </c>
       <c r="M38" t="n">
         <v>32.5799358286726</v>
@@ -3150,20 +3150,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3202,39 +3202,39 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428289</v>
+        <v>0.003535944426428287</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001604180994517588</v>
+        <v>0.001604180994517587</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269121</v>
+        <v>49860.53582269123</v>
       </c>
       <c r="O39" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3273,39 +3273,39 @@
         <v>3.175</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002197614221644402</v>
+        <v>0.002197614221644403</v>
       </c>
       <c r="K40" t="n">
         <v>126.327924989666</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003662964402999014</v>
+        <v>0.0003662964402999018</v>
       </c>
       <c r="M40" t="n">
         <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>57484.122438532</v>
+        <v>57484.12243853199</v>
       </c>
       <c r="O40" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3344,39 +3344,39 @@
         <v>3.175</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002440386540067831</v>
+        <v>0.002440386540067832</v>
       </c>
       <c r="K41" t="n">
         <v>127.142187354785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001272923963641631</v>
+        <v>0.001272923963641632</v>
       </c>
       <c r="M41" t="n">
         <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>52099.20037964602</v>
+        <v>52099.200379646</v>
       </c>
       <c r="O41" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3415,39 +3415,39 @@
         <v>3.175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002919619240649738</v>
+        <v>0.002919619240649737</v>
       </c>
       <c r="K42" t="n">
         <v>137.914967289347</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0004717993448001379</v>
+        <v>0.0004717993448001373</v>
       </c>
       <c r="M42" t="n">
         <v>22.2865332229986</v>
       </c>
       <c r="N42" t="n">
-        <v>47237.31278694243</v>
+        <v>47237.31278694244</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3486,39 +3486,39 @@
         <v>3.175</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0007756972094795218</v>
+        <v>0.0007756972094795681</v>
       </c>
       <c r="K43" t="n">
         <v>43.69035133474</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0004853675214597392</v>
+        <v>0.0004853675214597681</v>
       </c>
       <c r="M43" t="n">
         <v>27.3378288330787</v>
       </c>
       <c r="N43" t="n">
-        <v>56323.97641865361</v>
+        <v>56323.97641865025</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3576,20 +3576,20 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3647,20 +3647,20 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3699,39 +3699,39 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312869</v>
+        <v>0.001642667931312868</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568681</v>
+        <v>0.0008846657864568689</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484174</v>
+        <v>52943.65838484175</v>
       </c>
       <c r="O46" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3770,39 +3770,39 @@
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002029688456395919</v>
+        <v>0.002029688456395918</v>
       </c>
       <c r="K47" t="n">
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243188</v>
+        <v>0.0002692857965243174</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640273</v>
+        <v>48437.73151640275</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3847,7 +3847,7 @@
         <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0004515525620684</v>
+        <v>0.0004515525620684002</v>
       </c>
       <c r="M48" t="n">
         <v>23.5320241377496</v>
@@ -3860,20 +3860,20 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3918,7 +3918,7 @@
         <v>214.622689722153</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001324219784092684</v>
+        <v>0.001324219784092685</v>
       </c>
       <c r="M49" t="n">
         <v>60.5090028752196</v>
@@ -3931,20 +3931,20 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3989,7 +3989,7 @@
         <v>151.737831510864</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005664390169995647</v>
+        <v>0.0005664390169995646</v>
       </c>
       <c r="M50" t="n">
         <v>29.9205011226317</v>
@@ -4002,20 +4002,20 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4073,20 +4073,20 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4144,20 +4144,20 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4215,20 +4215,20 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4267,41 +4267,41 @@
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003684993496534412</v>
+        <v>0.00368499349653421</v>
       </c>
       <c r="K54" t="n">
         <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002272049722026811</v>
+        <v>0.002272049722026686</v>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>44013.1212933112</v>
+        <v>44013.1212933136</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0009700428058603003</v>
+        <v>0.000970042805860502</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00634629]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>[191.29395231]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
         </is>
       </c>
     </row>
@@ -4361,20 +4361,20 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4419,33 +4419,33 @@
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356743733</v>
+        <v>0.0009362218356743739</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631024</v>
+        <v>50095.81368631023</v>
       </c>
       <c r="O56" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr"/>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4503,20 +4503,20 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4574,20 +4574,20 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4632,7 +4632,7 @@
         <v>159.315233127494</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002309406477392016</v>
+        <v>0.002309406477392015</v>
       </c>
       <c r="M59" t="n">
         <v>100</v>
@@ -4645,22 +4645,22 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663262]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>[200.59782047]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
         </is>
       </c>
     </row>
@@ -4701,39 +4701,39 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002183439006668277</v>
+        <v>0.002183439006668278</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921077</v>
+        <v>0.001216178373921078</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676712</v>
+        <v>52310.56454676711</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4791,20 +4791,20 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00632875]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>[187.98306967]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
           <t>LPL @ 75</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
         </is>
       </c>
     </row>
@@ -4930,27 +4930,27 @@
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452443</v>
+        <v>51251.21984452444</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5008,20 +5008,20 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5060,39 +5060,39 @@
         <v>3.175</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002801238875892798</v>
+        <v>0.002801238875892799</v>
       </c>
       <c r="K65" t="n">
         <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007091321681881983</v>
+        <v>0.0007091321681881988</v>
       </c>
       <c r="M65" t="n">
         <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>49095.9216823086</v>
+        <v>49095.92168230859</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr"/>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00581521]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>[184.28113182]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
         </is>
       </c>
     </row>
@@ -5218,27 +5218,27 @@
         <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>42336.50950927417</v>
+        <v>42336.50950927416</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5277,13 +5277,13 @@
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.004027151846017032</v>
+        <v>0.004027151846017031</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.002438382967616404</v>
+        <v>0.002438382967616403</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
@@ -5292,26 +5292,26 @@
         <v>41010.78515068252</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0009581021085889995</v>
+        <v>0.0009581021085890004</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00699032]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>[204.65696578]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
         </is>
       </c>
     </row>
@@ -5352,39 +5352,39 @@
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004318579631240168</v>
+        <v>0.004318579631240166</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338468</v>
+        <v>0.001009341110338465</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.8236428747</v>
+        <v>43615.82364287472</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>8.673617379884035e-19</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5423,7 +5423,7 @@
         <v>3.175</v>
       </c>
       <c r="J70" t="n">
-        <v>0.004512857274977415</v>
+        <v>0.004512857274977414</v>
       </c>
       <c r="K70" t="n">
         <v>178.246468462332</v>
@@ -5435,27 +5435,27 @@
         <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>39497.47523606849</v>
+        <v>39497.4752360685</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5500,33 +5500,33 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007743519844788434</v>
+        <v>0.000774351984478844</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970556</v>
+        <v>37416.04709970555</v>
       </c>
       <c r="O71" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5584,20 +5584,20 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5655,20 +5655,20 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5726,20 +5726,20 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr"/>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5793,24 +5793,24 @@
         <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5868,20 +5868,20 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5991,39 +5991,39 @@
         <v>3.175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.002908448967036806</v>
+        <v>0.002908448967036807</v>
       </c>
       <c r="K78" t="n">
         <v>110.081902277342</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0004249535703063055</v>
+        <v>0.0004249535703063062</v>
       </c>
       <c r="M78" t="n">
         <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>37849.00595642768</v>
+        <v>37849.00595642767</v>
       </c>
       <c r="O78" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6068,33 +6068,33 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325139</v>
+        <v>0.0008311687471325137</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458697</v>
+        <v>43221.08272458698</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr"/>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6139,7 +6139,7 @@
         <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0003564904747817478</v>
+        <v>0.0003564904747817477</v>
       </c>
       <c r="M80" t="n">
         <v>12.64659236909</v>
@@ -6152,20 +6152,20 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6223,20 +6223,20 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6275,39 +6275,39 @@
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.000916007180450091</v>
+        <v>0.0009160071804499832</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003289580731545218</v>
+        <v>0.0003289580731544832</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>47052.00613827537</v>
+        <v>47052.00613828091</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6352,7 +6352,7 @@
         <v>51.7861136852212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0008208543378776717</v>
+        <v>0.0008208543378776718</v>
       </c>
       <c r="M83" t="n">
         <v>26.3712347951603</v>
@@ -6365,20 +6365,20 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>56.7732969744529</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0007106552308107725</v>
+        <v>0.0007106552308107723</v>
       </c>
       <c r="M84" t="n">
         <v>30</v>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00364606]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>[69.48773288]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
         </is>
       </c>
     </row>
@@ -6492,39 +6492,39 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370434</v>
+        <v>0.001133706609370296</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910133367e-05</v>
+        <v>2.996225910133042e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124981459</v>
+        <v>50216.57124982067</v>
       </c>
       <c r="O85" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6569,33 +6569,33 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684951</v>
+        <v>0.0006235740665684954</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290324</v>
+        <v>53428.72227290323</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>-2.168404344971009e-19</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6634,39 +6634,39 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900995</v>
+        <v>0.001197085137900892</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772309599e-05</v>
+        <v>8.908567772308797e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920433</v>
+        <v>43347.78812920808</v>
       </c>
       <c r="O87" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6705,7 +6705,7 @@
         <v>3.175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0007068327420114108</v>
+        <v>0.0007068327420114109</v>
       </c>
       <c r="K88" t="n">
         <v>43.4660299348499</v>
@@ -6717,27 +6717,27 @@
         <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>61494.08106245905</v>
+        <v>61494.08106245904</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6782,33 +6782,33 @@
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002320617808629959</v>
+        <v>0.0002320617808629956</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>40403.9485411606</v>
+        <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6853,33 +6853,33 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584651</v>
+        <v>0.0009467802092584647</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444175</v>
+        <v>41908.23072444176</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6937,20 +6937,20 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6995,33 +6995,33 @@
         <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0001282871298544485</v>
+        <v>0.0001282871298544488</v>
       </c>
       <c r="M92" t="n">
         <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>43739.69865063918</v>
+        <v>43739.69865063917</v>
       </c>
       <c r="O92" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7066,7 +7066,7 @@
         <v>66.9553327522687</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0007398637008391106</v>
+        <v>0.0007398637008391102</v>
       </c>
       <c r="M93" t="n">
         <v>30</v>
@@ -7079,22 +7079,22 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00404133]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>[82.77179247]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
         </is>
       </c>
     </row>
@@ -7135,39 +7135,39 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.000950103311477327</v>
+        <v>0.0009501033114772988</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292705e-05</v>
+        <v>3.835712248292586e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324052</v>
+        <v>45349.66936324187</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7206,39 +7206,39 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.00131027395965521</v>
+        <v>0.0013102739596552</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.030809767081075e-05</v>
+        <v>2.03080976708099e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.5187158682</v>
+        <v>45579.51871586858</v>
       </c>
       <c r="O95" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7296,20 +7296,20 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7348,39 +7348,39 @@
         <v>3.175</v>
       </c>
       <c r="J97" t="n">
-        <v>0.000948348554995344</v>
+        <v>0.0009483485549953443</v>
       </c>
       <c r="K97" t="n">
         <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.000656170014276044</v>
+        <v>0.0006561700142760442</v>
       </c>
       <c r="M97" t="n">
         <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>43714.75818065652</v>
+        <v>43714.75818065651</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7425,7 +7425,7 @@
         <v>55.1712364974773</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0006578419678800564</v>
+        <v>0.0006578419678800565</v>
       </c>
       <c r="M98" t="n">
         <v>31.5012589561555</v>
@@ -7438,20 +7438,20 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7490,41 +7490,41 @@
         <v>3.175</v>
       </c>
       <c r="J99" t="n">
-        <v>0.002685416160155546</v>
+        <v>0.002685416160155548</v>
       </c>
       <c r="K99" t="n">
         <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001123631928050032</v>
+        <v>0.001123631928050033</v>
       </c>
       <c r="M99" t="n">
         <v>30</v>
       </c>
       <c r="N99" t="n">
-        <v>26699.1345218024</v>
+        <v>26699.13452180238</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0002674287413347199</v>
+        <v>0.0002674287413347185</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00526576]</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>[87.19286708]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
         </is>
       </c>
     </row>
@@ -7584,22 +7584,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00502987]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>[88.65760866]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
         </is>
       </c>
     </row>
@@ -7659,20 +7659,20 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/info/02 processed info.xlsx
+++ b/example/info/02 processed info.xlsx
@@ -506,34 +506,34 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>foot correction</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>YP_0.002_0</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>YP_0.002_1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>reject</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test_ID_055</t>
+          <t>test_ID_080</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -561,7 +561,7 @@
         <v>0.000866</v>
       </c>
       <c r="H2" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I2" t="n">
         <v>3.175</v>
@@ -579,32 +579,32 @@
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050128</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P2" t="inlineStr">
+        <v>63702.73562050127</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0.000343613133393793</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>[0.00595534]</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>[251.96596728]</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test_ID_056</t>
+          <t>test_ID_081</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -632,7 +632,7 @@
         <v>0.000866</v>
       </c>
       <c r="H3" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I3" t="n">
         <v>3.175</v>
@@ -652,30 +652,30 @@
       <c r="N3" t="n">
         <v>54345.38412413871</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0.0004895812404323431</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>[0.00665334]</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>[252.88748701]</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test_ID_057</t>
+          <t>test_ID_082</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -703,55 +703,55 @@
         <v>0.000866</v>
       </c>
       <c r="H4" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I4" t="n">
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001771310291409491</v>
+        <v>0.001771310291409529</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005582429183699906</v>
+        <v>0.000558242918370003</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>65257.00479430391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P4" t="inlineStr">
+        <v>65257.0047943025</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.000530764702328129</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>[0.00589268]</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[254.02447229]</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test_ID_058</t>
+          <t>test_ID_078</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_020_B_1_004_059_01.csv</t>
+          <t>T_020_B_3_006_063_03.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -768,61 +768,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0.000866</v>
       </c>
       <c r="H5" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I5" t="n">
         <v>3.175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003234063939585186</v>
+        <v>0.001422674189591884</v>
       </c>
       <c r="K5" t="n">
-        <v>192.947593520996</v>
+        <v>100.116005949159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005903185807671868</v>
+        <v>0.0005565689981795843</v>
       </c>
       <c r="M5" t="n">
-        <v>35.2190159803605</v>
+        <v>39.1667084006418</v>
       </c>
       <c r="N5" t="n">
-        <v>59661.03241166723</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
+        <v>70371.70329060289</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>9.183978673318427e-05</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>test_ID_059</t>
+          <t>test_ID_083</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_020_B_2_005_061_02.csv</t>
+          <t>T_020_B_1_004_059_01.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -839,61 +839,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0.000866</v>
       </c>
       <c r="H6" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I6" t="n">
         <v>3.175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00381451361088899</v>
+        <v>0.003234063939585186</v>
       </c>
       <c r="K6" t="n">
-        <v>212.461144507981</v>
+        <v>192.947593520996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002194805336283906</v>
+        <v>0.0005903185807671863</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2246477870196</v>
+        <v>35.2190159803605</v>
       </c>
       <c r="N6" t="n">
-        <v>55698.09579430651</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
+        <v>59661.03241166723</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>-0.0004346933673407137</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test_ID_060</t>
+          <t>test_ID_084</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T_020_B_3_006_063_03.csv</t>
+          <t>T_020_B_2_005_061_02.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -910,56 +910,56 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0.000866</v>
       </c>
       <c r="H7" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I7" t="n">
         <v>3.175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001422674189591884</v>
+        <v>0.00381451361088899</v>
       </c>
       <c r="K7" t="n">
-        <v>100.116005949159</v>
+        <v>212.461144507981</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005565689981795848</v>
+        <v>0.0002194805336283904</v>
       </c>
       <c r="M7" t="n">
-        <v>39.1667084006418</v>
+        <v>12.2246477870196</v>
       </c>
       <c r="N7" t="n">
-        <v>70371.70329060289</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
+        <v>55698.09579430651</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0.0003567081833944904</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>test_ID_061</t>
+          <t>test_ID_086</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -987,7 +987,7 @@
         <v>0.000866</v>
       </c>
       <c r="H8" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I8" t="n">
         <v>3.175</v>
@@ -999,7 +999,7 @@
         <v>133.484577967839</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008960826996215408</v>
+        <v>0.0008960826996215404</v>
       </c>
       <c r="M8" t="n">
         <v>55.4581964877506</v>
@@ -1007,30 +1007,30 @@
       <c r="N8" t="n">
         <v>61889.59625174473</v>
       </c>
-      <c r="O8" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>0.0001712096225899404</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>[0.00651891]</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>[279.67343248]</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>test_ID_062</t>
+          <t>test_ID_087</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,54 +1058,50 @@
         <v>0.000866</v>
       </c>
       <c r="H9" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I9" t="n">
         <v>3.175</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002543036983960566</v>
+        <v>0.002644136638289646</v>
       </c>
       <c r="K9" t="n">
         <v>153.024416048495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001661850474341723</v>
+        <v>0.002418187927348046</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>139.948060973625</v>
       </c>
       <c r="N9" t="n">
-        <v>60173.88540302405</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0001010996543290804</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
-        </is>
+        <v>57873.11208980431</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>0.0004134955762651457</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00662082]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>LPL @ 100</t>
+          <t>[267.42109477]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>test_ID_063</t>
+          <t>test_ID_088</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1133,7 +1129,7 @@
         <v>0.000866</v>
       </c>
       <c r="H10" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I10" t="n">
         <v>3.175</v>
@@ -1145,7 +1141,7 @@
         <v>183.56403158262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005319670038823361</v>
+        <v>0.0005319670038823366</v>
       </c>
       <c r="M10" t="n">
         <v>28.8565435888071</v>
@@ -1153,35 +1149,35 @@
       <c r="N10" t="n">
         <v>54244.98771203815</v>
       </c>
-      <c r="O10" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>-0.0004316940708122634</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>[0.00687551]</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>[264.47172192]</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>test_ID_064</t>
+          <t>test_ID_079</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T_020_D_1_010_064_01.csv</t>
+          <t>T_020_D_3_012_066_03.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1198,56 +1194,56 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0.000866</v>
       </c>
       <c r="H11" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I11" t="n">
         <v>3.175</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003408700883743779</v>
+        <v>0.002831397119518019</v>
       </c>
       <c r="K11" t="n">
-        <v>186.003104711952</v>
+        <v>164.610840241371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001751694515012279</v>
+        <v>0.002369830775605819</v>
       </c>
       <c r="M11" t="n">
-        <v>95.5849836672474</v>
+        <v>137.77644701028</v>
       </c>
       <c r="N11" t="n">
-        <v>54567.15360359359</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
+        <v>58137.67313198094</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>-0.0002246542070388807</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>test_ID_065</t>
+          <t>test_ID_089</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1275,59 +1271,55 @@
         <v>0.000866</v>
       </c>
       <c r="H12" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I12" t="n">
         <v>3.175</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0035549164044844</v>
+        <v>0.003768694015879434</v>
       </c>
       <c r="K12" t="n">
         <v>197.823708886257</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00179701231187025</v>
+        <v>0.003001317510089134</v>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>157.543106150142</v>
       </c>
       <c r="N12" t="n">
-        <v>55647.92146355663</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0002137776113950341</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
-        </is>
+        <v>52491.31610386107</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0.0008862018816846342</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00692006]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>LPL @ 100</t>
+          <t>[258.26045203]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>test_ID_066</t>
+          <t>test_ID_090</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T_020_D_3_012_066_03.csv</t>
+          <t>T_020_D_1_010_064_01.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1344,56 +1336,56 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0.000866</v>
       </c>
       <c r="H13" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I13" t="n">
         <v>3.175</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002831397119518019</v>
+        <v>0.003408700883743779</v>
       </c>
       <c r="K13" t="n">
-        <v>164.610840241371</v>
+        <v>186.003104711952</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002369830775605819</v>
+        <v>0.001751694515012279</v>
       </c>
       <c r="M13" t="n">
-        <v>137.77644701028</v>
+        <v>95.5849836672474</v>
       </c>
       <c r="N13" t="n">
-        <v>58137.67313198094</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
+        <v>54567.15360359359</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0.0002462890752533788</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>test_ID_067</t>
+          <t>test_ID_091</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1421,13 +1413,13 @@
         <v>0.000866</v>
       </c>
       <c r="H14" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I14" t="n">
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003337599360594598</v>
+        <v>0.003337599360594599</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
@@ -1439,32 +1431,32 @@
         <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>57506.24417888997</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr">
+        <v>57506.24417888996</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0.0003095039103118984</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>[0.00631948]</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>[248.3971272]</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>test_ID_068</t>
+          <t>test_ID_092</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1492,7 +1484,7 @@
         <v>0.000866</v>
       </c>
       <c r="H15" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I15" t="n">
         <v>3.175</v>
@@ -1504,7 +1496,7 @@
         <v>179.013564063243</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007991534053124828</v>
+        <v>0.0007991534053124824</v>
       </c>
       <c r="M15" t="n">
         <v>46.8713138583788</v>
@@ -1512,30 +1504,30 @@
       <c r="N15" t="n">
         <v>58651.20957602798</v>
       </c>
-      <c r="O15" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0.0001167273405350824</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>[0.00618976]</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[245.73442059]</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>test_ID_069</t>
+          <t>test_ID_093</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1563,7 +1555,7 @@
         <v>0.000866</v>
       </c>
       <c r="H16" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I16" t="n">
         <v>3.175</v>
@@ -1583,30 +1575,30 @@
       <c r="N16" t="n">
         <v>73592.84095891487</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>9.531691839774926e-05</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>[0.00527041]</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[240.67871789]</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>test_ID_070</t>
+          <t>test_ID_094</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,50 +1626,50 @@
         <v>0.000866</v>
       </c>
       <c r="H17" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I17" t="n">
         <v>3.175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002407070069901567</v>
+        <v>0.002407070069901566</v>
       </c>
       <c r="K17" t="n">
         <v>144.247777516109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006398491389772661</v>
+        <v>0.0006398491389772658</v>
       </c>
       <c r="M17" t="n">
         <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>59926.70480174589</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P17" t="inlineStr">
+        <v>59926.70480174591</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>-0.0001668037782862342</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>[0.007061]</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[303.28881334]</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>test_ID_071</t>
+          <t>test_ID_095</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1705,7 +1697,7 @@
         <v>0.000866</v>
       </c>
       <c r="H18" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I18" t="n">
         <v>3.175</v>
@@ -1725,30 +1717,30 @@
       <c r="N18" t="n">
         <v>49865.42503582808</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0.0004536535710335157</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>[0.00767737]</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[283.10466726]</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>test_ID_072</t>
+          <t>test_ID_096</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1776,7 +1768,7 @@
         <v>0.000866</v>
       </c>
       <c r="H19" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I19" t="n">
         <v>3.175</v>
@@ -1788,7 +1780,7 @@
         <v>102.235369819713</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006185604438029024</v>
+        <v>0.0006185604438029022</v>
       </c>
       <c r="M19" t="n">
         <v>34.9378942094105</v>
@@ -1796,30 +1788,30 @@
       <c r="N19" t="n">
         <v>56482.58720621179</v>
       </c>
-      <c r="O19" t="n">
-        <v>-2.168404344971009e-19</v>
-      </c>
-      <c r="P19" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>-0.0005549399286298978</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>[0.00686329]</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[274.69125295]</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>test_ID_073</t>
+          <t>test_ID_097</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1847,7 +1839,7 @@
         <v>0.000866</v>
       </c>
       <c r="H20" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I20" t="n">
         <v>3.175</v>
@@ -1867,30 +1859,30 @@
       <c r="N20" t="n">
         <v>69135.73378144363</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>-0.0004259274742736629</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>[0.00587294]</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[267.7587454]</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>test_ID_074</t>
+          <t>test_ID_098</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1918,50 +1910,50 @@
         <v>0.000866</v>
       </c>
       <c r="H21" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I21" t="n">
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938446999</v>
+        <v>0.003099591938447006</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.850138957700593e-05</v>
+        <v>9.850138957700637e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680225</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="inlineStr">
+        <v>59673.13012680211</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>-8.019852286719363e-05</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>[0.00602558]</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[240.21867153]</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>test_ID_075</t>
+          <t>test_ID_099</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1989,7 +1981,7 @@
         <v>0.000866</v>
       </c>
       <c r="H22" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I22" t="n">
         <v>3.175</v>
@@ -2001,7 +1993,7 @@
         <v>147.650044884146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008695210452605132</v>
+        <v>0.0008695210452605134</v>
       </c>
       <c r="M22" t="n">
         <v>50.5803295346691</v>
@@ -2009,30 +2001,30 @@
       <c r="N22" t="n">
         <v>58170.33389860614</v>
       </c>
-      <c r="O22" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P22" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>9.097191051991339e-05</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>[0.0055403]</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>[205.94052989]</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>test_ID_076</t>
+          <t>test_ID_100</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2060,13 +2052,13 @@
         <v>0.000866</v>
       </c>
       <c r="H23" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I23" t="n">
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002986865689476004</v>
+        <v>0.002986865689476005</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
@@ -2078,37 +2070,37 @@
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784517</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="inlineStr">
+        <v>59252.56043784516</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>0.0004286968068274045</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>[0.00605723]</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>[240.40125743]</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>test_ID_077</t>
+          <t>test_ID_001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T_100_B_1_035_060_06.csv</t>
+          <t>T_100_B_2_036_067_08.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2125,61 +2117,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0.000866</v>
       </c>
       <c r="H24" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I24" t="n">
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891336</v>
+        <v>0.002799291831076681</v>
       </c>
       <c r="K24" t="n">
-        <v>164.528068453978</v>
+        <v>166.148394269309</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495351</v>
+        <v>9.348677992880878e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>14.3557569931856</v>
+        <v>0.554878851791746</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553229024</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
+        <v>59353.72383286097</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>-9.209623205211912e-05</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>test_ID_078</t>
+          <t>test_ID_011</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T_100_B_2_036_067_08.csv</t>
+          <t>T_100_B_3_037_096_09.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2196,61 +2188,61 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0.000866</v>
       </c>
       <c r="H25" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I25" t="n">
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002799291831076499</v>
+        <v>0.002342094147758236</v>
       </c>
       <c r="K25" t="n">
-        <v>166.148394269309</v>
+        <v>143.264709458966</v>
       </c>
       <c r="L25" t="n">
-        <v>9.34867799287871e-06</v>
+        <v>6.561829182213629e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.554878851791746</v>
+        <v>4.01383758295543</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286482</v>
-      </c>
-      <c r="O25" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
+        <v>61169.49209582098</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>-7.758201511646372e-05</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>test_ID_079</t>
+          <t>test_ID_085</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T_100_B_3_037_096_09.csv</t>
+          <t>T_100_B_1_035_060_06.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2267,61 +2259,61 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0.000866</v>
       </c>
       <c r="H26" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I26" t="n">
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147758199</v>
+        <v>0.002913928760891397</v>
       </c>
       <c r="K26" t="n">
-        <v>143.264709458966</v>
+        <v>164.528068453978</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213455e-05</v>
+        <v>0.0002542523812495404</v>
       </c>
       <c r="M26" t="n">
-        <v>4.01383758295543</v>
+        <v>14.3557569931856</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582195</v>
-      </c>
-      <c r="O26" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
+        <v>56462.62553228906</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0.0002957619767601969</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>test_ID_080</t>
+          <t>test_ID_023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T_100_C_1_038_049_04.csv</t>
+          <t>T_100_C_2_039_095_05.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2338,61 +2330,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0.000866</v>
       </c>
       <c r="H27" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I27" t="n">
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583311999</v>
+        <v>0.003608067645741652</v>
       </c>
       <c r="K27" t="n">
-        <v>114.945593796641</v>
+        <v>211.28186215837</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191342e-05</v>
+        <v>0.0003993781755485524</v>
       </c>
       <c r="M27" t="n">
-        <v>2.57205730032622</v>
+        <v>23.3868577089734</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.72454414391</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
+        <v>58558.17653744132</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>-0.0002421665394191476</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>test_ID_081</t>
+          <t>test_ID_024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T_100_C_2_039_095_05.csv</t>
+          <t>T_100_C_3_040_051_06.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2409,61 +2401,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>0.000866</v>
       </c>
       <c r="H28" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I28" t="n">
         <v>3.175</v>
       </c>
       <c r="J28" t="n">
-        <v>0.003608067645741652</v>
+        <v>0.001648224949389607</v>
       </c>
       <c r="K28" t="n">
-        <v>211.28186215837</v>
+        <v>100.820663952542</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003993781755485529</v>
+        <v>0.000420692461308671</v>
       </c>
       <c r="M28" t="n">
-        <v>23.3868577089734</v>
+        <v>25.7334372257117</v>
       </c>
       <c r="N28" t="n">
-        <v>58558.17653744132</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
+        <v>61169.23784576812</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>0.0004348944450230073</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>test_ID_082</t>
+          <t>test_ID_076</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T_100_C_3_040_051_06.csv</t>
+          <t>T_100_C_1_038_049_04.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2480,56 +2472,56 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0.000866</v>
       </c>
       <c r="H29" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I29" t="n">
         <v>3.175</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001648224949389693</v>
+        <v>0.001877897583312018</v>
       </c>
       <c r="K29" t="n">
-        <v>100.820663952542</v>
+        <v>114.945593796641</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000420692461308693</v>
+        <v>4.202040312191429e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>25.7334372257117</v>
+        <v>2.57205730032622</v>
       </c>
       <c r="N29" t="n">
-        <v>61169.23784576494</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
+        <v>61209.7245441433</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>-1.811243338828211e-05</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>test_ID_083</t>
+          <t>test_ID_025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2557,7 +2549,7 @@
         <v>0.000866</v>
       </c>
       <c r="H30" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I30" t="n">
         <v>3.175</v>
@@ -2569,7 +2561,7 @@
         <v>117.019256302744</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0006749432958574681</v>
+        <v>0.0006749432958574685</v>
       </c>
       <c r="M30" t="n">
         <v>45.3311002700754</v>
@@ -2577,30 +2569,30 @@
       <c r="N30" t="n">
         <v>67162.82767500551</v>
       </c>
-      <c r="O30" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P30" t="inlineStr">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>9.650639171126857e-05</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>[0.00562653]</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>[243.56803442]</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>test_ID_084</t>
+          <t>test_ID_026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2628,50 +2620,50 @@
         <v>0.000866</v>
       </c>
       <c r="H31" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I31" t="n">
         <v>3.175</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00377042063778874</v>
+        <v>0.003770420637788741</v>
       </c>
       <c r="K31" t="n">
         <v>185.923507771131</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00120180735436314</v>
+        <v>0.001201807354363141</v>
       </c>
       <c r="M31" t="n">
         <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>49311.07842656267</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="inlineStr">
+        <v>49311.07842656266</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>0.001050742857985741</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>[0.0070141]</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[247.25043481]</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>test_ID_085</t>
+          <t>test_ID_027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2699,50 +2691,50 @@
         <v>0.000866</v>
       </c>
       <c r="H32" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I32" t="n">
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005420269248841921</v>
+        <v>0.000542026924884292</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559953716e-05</v>
+        <v>4.254760559954508e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449707461</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="inlineStr">
+        <v>85101.44449705892</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>-4.507463801850802e-05</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>[0.00493244]</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>[249.55500899]</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>test_ID_086</t>
+          <t>test_ID_028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2770,7 +2762,7 @@
         <v>0.000866</v>
       </c>
       <c r="H33" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I33" t="n">
         <v>3.175</v>
@@ -2790,30 +2782,30 @@
       <c r="N33" t="n">
         <v>54071.26799750867</v>
       </c>
-      <c r="O33" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P33" t="inlineStr">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>0.0006475197704802183</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>[0.00639713]</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>[237.75820578]</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>test_ID_087</t>
+          <t>test_ID_029</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2841,7 +2833,7 @@
         <v>0.000866</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I34" t="n">
         <v>3.175</v>
@@ -2861,30 +2853,30 @@
       <c r="N34" t="n">
         <v>76081.84927734443</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="inlineStr">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>1.660443807201283e-06</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>[0.00507792]</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>[234.17396009]</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>test_ID_088</t>
+          <t>test_ID_030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2912,7 +2904,7 @@
         <v>0.000866</v>
       </c>
       <c r="H35" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I35" t="n">
         <v>3.175</v>
@@ -2932,30 +2924,30 @@
       <c r="N35" t="n">
         <v>65766.00230349448</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="inlineStr">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>4.135819297285646e-05</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>[0.00557583]</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>[235.16789173]</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>test_ID_089</t>
+          <t>test_ID_031</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2983,7 +2975,7 @@
         <v>0.000866</v>
       </c>
       <c r="H36" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I36" t="n">
         <v>3.175</v>
@@ -2995,38 +2987,38 @@
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923013</v>
+        <v>0.0007298762958923019</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441386</v>
-      </c>
-      <c r="O36" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P36" t="inlineStr">
+        <v>55511.09310441385</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>0.001131404196779302</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>[0.00694048]</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>[274.25136363]</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>test_ID_090</t>
+          <t>test_ID_032</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3054,7 +3046,7 @@
         <v>0.000866</v>
       </c>
       <c r="H37" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I37" t="n">
         <v>3.175</v>
@@ -3074,30 +3066,30 @@
       <c r="N37" t="n">
         <v>44838.41936804264</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="inlineStr">
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>0.0009057003101174462</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>[0.00785175]</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>[262.3832283]</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>test_ID_091</t>
+          <t>test_ID_033</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3125,7 +3117,7 @@
         <v>0.000866</v>
       </c>
       <c r="H38" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I38" t="n">
         <v>3.175</v>
@@ -3137,7 +3129,7 @@
         <v>174.581165598501</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005973992805999483</v>
+        <v>0.0005973992805999486</v>
       </c>
       <c r="M38" t="n">
         <v>32.5799358286726</v>
@@ -3145,30 +3137,30 @@
       <c r="N38" t="n">
         <v>54536.28232687803</v>
       </c>
-      <c r="O38" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P38" t="inlineStr">
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>0.0008630670852242486</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>[0.00699255]</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>[272.27523845]</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>test_ID_092</t>
+          <t>test_ID_034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3196,50 +3188,50 @@
         <v>0.000866</v>
       </c>
       <c r="H39" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I39" t="n">
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428287</v>
+        <v>0.003535944426428289</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001604180994517587</v>
+        <v>0.001604180994517588</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269123</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P39" t="inlineStr">
+        <v>49860.53582269121</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>0.0008016758350805884</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>[0.00707856]</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>[253.21952832]</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>test_ID_093</t>
+          <t>test_ID_035</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3267,13 +3259,13 @@
         <v>0.000866</v>
       </c>
       <c r="H40" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I40" t="n">
         <v>3.175</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002197614221644403</v>
+        <v>0.002197614221644402</v>
       </c>
       <c r="K40" t="n">
         <v>126.327924989666</v>
@@ -3285,32 +3277,32 @@
         <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>57484.12243853199</v>
-      </c>
-      <c r="O40" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P40" t="inlineStr">
+        <v>57484.122438532</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>1.049680261430187e-05</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>[0.00570956]</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>[213.2409893]</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>test_ID_094</t>
+          <t>test_ID_036</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3338,55 +3330,55 @@
         <v>0.000866</v>
       </c>
       <c r="H41" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I41" t="n">
         <v>3.175</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002440386540067832</v>
+        <v>0.002440386540067831</v>
       </c>
       <c r="K41" t="n">
         <v>127.142187354785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001272923963641632</v>
+        <v>0.001272923963641631</v>
       </c>
       <c r="M41" t="n">
         <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>52099.200379646</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="inlineStr">
+        <v>52099.20037964602</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>0.0001231640292093314</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>[0.00610135]</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>[213.67688741]</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>test_ID_095</t>
+          <t>test_ID_022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T_150_C_1_069_107_16.csv</t>
+          <t>T_150_C_2_070_108_17.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3403,61 +3395,61 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>0.000866</v>
       </c>
       <c r="H42" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I42" t="n">
         <v>3.175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002919619240649737</v>
+        <v>0.0007756972094795218</v>
       </c>
       <c r="K42" t="n">
-        <v>137.914967289347</v>
+        <v>43.69035133474</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0004717993448001373</v>
+        <v>0.0004853675214597392</v>
       </c>
       <c r="M42" t="n">
-        <v>22.2865332229986</v>
+        <v>27.3378288330787</v>
       </c>
       <c r="N42" t="n">
-        <v>47237.31278694244</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
+        <v>56323.97641865361</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>0.0007330792019057392</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>test_ID_096</t>
+          <t>test_ID_037</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T_150_C_2_070_108_17.csv</t>
+          <t>T_150_C_1_069_107_16.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3474,61 +3466,61 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0.000866</v>
       </c>
       <c r="H43" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I43" t="n">
         <v>3.175</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0007756972094795681</v>
+        <v>0.002919619240649738</v>
       </c>
       <c r="K43" t="n">
-        <v>43.69035133474</v>
+        <v>137.914967289347</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0004853675214597681</v>
+        <v>0.0004717993448001379</v>
       </c>
       <c r="M43" t="n">
-        <v>27.3378288330787</v>
+        <v>22.2865332229986</v>
       </c>
       <c r="N43" t="n">
-        <v>56323.97641865025</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
+        <v>47237.31278694243</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>0.000875812239462738</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>test_ID_097</t>
+          <t>test_ID_020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T_150_D_1_072_111_04.csv</t>
+          <t>T_150_D_2_073_112_05.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3545,61 +3537,61 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0.000866</v>
       </c>
       <c r="H44" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I44" t="n">
         <v>3.175</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004385461460634597</v>
+        <v>0.002229400711533884</v>
       </c>
       <c r="K44" t="n">
-        <v>190.806708666229</v>
+        <v>106.423782753718</v>
       </c>
       <c r="L44" t="n">
-        <v>0.002048999318419596</v>
+        <v>0.001046438241381984</v>
       </c>
       <c r="M44" t="n">
-        <v>89.1497552803521</v>
+        <v>49.9532970855636</v>
       </c>
       <c r="N44" t="n">
-        <v>43508.92383366616</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
+        <v>47736.49806565988</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>0.0007321093497570839</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>test_ID_098</t>
+          <t>test_ID_021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T_150_D_2_073_112_05.csv</t>
+          <t>T_150_D_1_072_111_04.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3616,61 +3608,61 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0.000866</v>
       </c>
       <c r="H45" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I45" t="n">
         <v>3.175</v>
       </c>
       <c r="J45" t="n">
-        <v>0.002229400711533884</v>
+        <v>0.004385461460634597</v>
       </c>
       <c r="K45" t="n">
-        <v>106.423782753718</v>
+        <v>190.806708666229</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001046438241381984</v>
+        <v>0.002048999318419596</v>
       </c>
       <c r="M45" t="n">
-        <v>49.9532970855636</v>
+        <v>89.1497552803521</v>
       </c>
       <c r="N45" t="n">
-        <v>47736.49806565988</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
+        <v>43508.92383366616</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>0.001030591323611097</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>test_ID_099</t>
+          <t>test_ID_003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T_150_E_1_075_116_09.csv</t>
+          <t>T_150_E_2_076_117_10.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3687,61 +3679,61 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0.000866</v>
       </c>
       <c r="H46" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I46" t="n">
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312868</v>
+        <v>0.002029688456395919</v>
       </c>
       <c r="K46" t="n">
-        <v>86.96884979516319</v>
+        <v>98.3135045128474</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568689</v>
+        <v>0.0002692857965243188</v>
       </c>
       <c r="M46" t="n">
-        <v>46.8374431829298</v>
+        <v>13.0435931132256</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484175</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
+        <v>48437.73151640273</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>0.0004840251368253188</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>test_ID_100</t>
+          <t>test_ID_019</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T_150_E_2_076_117_10.csv</t>
+          <t>T_150_E_1_075_116_09.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3758,56 +3750,56 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0.000866</v>
       </c>
       <c r="H47" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I47" t="n">
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002029688456395918</v>
+        <v>0.001642667931312869</v>
       </c>
       <c r="K47" t="n">
-        <v>98.3135045128474</v>
+        <v>86.96884979516319</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243174</v>
+        <v>0.0008846657864568686</v>
       </c>
       <c r="M47" t="n">
-        <v>13.0435931132256</v>
+        <v>46.8374431829298</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640275</v>
-      </c>
-      <c r="O47" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
+        <v>52943.65838484174</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>0.0005983305746827686</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>test_ID_101</t>
+          <t>test_ID_004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3835,7 +3827,7 @@
         <v>0.000866</v>
       </c>
       <c r="H48" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I48" t="n">
         <v>3.175</v>
@@ -3847,7 +3839,7 @@
         <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0004515525620684002</v>
+        <v>0.0004515525620684005</v>
       </c>
       <c r="M48" t="n">
         <v>23.5320241377496</v>
@@ -3855,30 +3847,30 @@
       <c r="N48" t="n">
         <v>52113.58790648386</v>
       </c>
-      <c r="O48" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P48" t="inlineStr">
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>8.460631615250054e-05</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>[0.00675115]</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>[247.59971195]</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>test_ID_102</t>
+          <t>test_ID_005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3906,7 +3898,7 @@
         <v>0.000866</v>
       </c>
       <c r="H49" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I49" t="n">
         <v>3.175</v>
@@ -3918,7 +3910,7 @@
         <v>214.622689722153</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001324219784092685</v>
+        <v>0.001324219784092684</v>
       </c>
       <c r="M49" t="n">
         <v>60.5090028752196</v>
@@ -3926,30 +3918,30 @@
       <c r="N49" t="n">
         <v>45694.07858279248</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="inlineStr">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>0.0008567276039679844</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>[0.00726536]</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>[240.59583819]</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>test_ID_103</t>
+          <t>test_ID_006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3977,7 +3969,7 @@
         <v>0.000866</v>
       </c>
       <c r="H50" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I50" t="n">
         <v>3.175</v>
@@ -3989,7 +3981,7 @@
         <v>151.737831510864</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005664390169995646</v>
+        <v>0.0005664390169995643</v>
       </c>
       <c r="M50" t="n">
         <v>29.9205011226317</v>
@@ -3997,30 +3989,30 @@
       <c r="N50" t="n">
         <v>52822.10480683522</v>
       </c>
-      <c r="O50" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P50" t="inlineStr">
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>0.0002699520485847642</v>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>[0.00682053]</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>[254.63062289]</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>test_ID_104</t>
+          <t>test_ID_007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4048,7 +4040,7 @@
         <v>0.000866</v>
       </c>
       <c r="H51" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I51" t="n">
         <v>3.175</v>
@@ -4060,7 +4052,7 @@
         <v>179.160245834743</v>
       </c>
       <c r="L51" t="n">
-        <v>0.002452435642864738</v>
+        <v>0.002452435642864739</v>
       </c>
       <c r="M51" t="n">
         <v>99.3182964530266</v>
@@ -4068,35 +4060,35 @@
       <c r="N51" t="n">
         <v>40497.81968468332</v>
       </c>
-      <c r="O51" t="n">
-        <v>8.673617379884035e-19</v>
-      </c>
-      <c r="P51" t="inlineStr">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>0.001260259507802939</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>[0.00796062]</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>[241.39220896]</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>test_ID_105</t>
+          <t>test_ID_002</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T_200_A_1_094_041_14.csv</t>
+          <t>T_200_A_3_096_033_11.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4113,61 +4105,65 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>0.000866</v>
       </c>
       <c r="H52" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I52" t="n">
         <v>3.175</v>
       </c>
       <c r="J52" t="n">
-        <v>0.002485691494831069</v>
+        <v>0.00368499349653438</v>
       </c>
       <c r="K52" t="n">
-        <v>134.337541640328</v>
+        <v>162.188065728032</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001082338208415669</v>
+        <v>0.002272049722026791</v>
       </c>
       <c r="M52" t="n">
-        <v>58.4942477553271</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>54044.33410971532</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>44013.12129331158</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.00132275994714398</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>[0.00634629]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[191.29395231]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>test_ID_106</t>
+          <t>test_ID_008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T_200_A_2_095_034_12.csv</t>
+          <t>T_200_A_1_094_041_14.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4184,61 +4180,61 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0.000866</v>
       </c>
       <c r="H53" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I53" t="n">
         <v>3.175</v>
       </c>
       <c r="J53" t="n">
-        <v>0.001228066336613659</v>
+        <v>0.002485691494831069</v>
       </c>
       <c r="K53" t="n">
-        <v>71.2418157261492</v>
+        <v>134.337541640328</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0003861060149173585</v>
+        <v>0.001082338208415669</v>
       </c>
       <c r="M53" t="n">
-        <v>22.3985404903691</v>
+        <v>58.4942477553271</v>
       </c>
       <c r="N53" t="n">
-        <v>58011.37414335085</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
+        <v>54044.33410971532</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>0.0005956601279578689</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>test_ID_107</t>
+          <t>test_ID_009</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T_200_A_3_096_033_11.csv</t>
+          <t>T_200_A_2_095_034_12.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4255,60 +4251,56 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>0.000866</v>
       </c>
       <c r="H54" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I54" t="n">
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.00368499349653421</v>
+        <v>0.001228066336613659</v>
       </c>
       <c r="K54" t="n">
-        <v>162.188065728032</v>
+        <v>71.2418157261492</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002272049722026686</v>
+        <v>0.0003861060149173587</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>22.3985404903691</v>
       </c>
       <c r="N54" t="n">
-        <v>44013.1212933136</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.000970042805860502</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
-        </is>
+        <v>58011.37414335085</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>0.0002364311953404587</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00465399]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>LPL @ 100</t>
+          <t>[153.96170388]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>test_ID_108</t>
+          <t>test_ID_010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4336,7 +4328,7 @@
         <v>0.000866</v>
       </c>
       <c r="H55" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I55" t="n">
         <v>3.175</v>
@@ -4348,7 +4340,7 @@
         <v>152.399409973673</v>
       </c>
       <c r="L55" t="n">
-        <v>0.000938992202240707</v>
+        <v>0.0009389922022407065</v>
       </c>
       <c r="M55" t="n">
         <v>51.3381952215828</v>
@@ -4356,30 +4348,30 @@
       <c r="N55" t="n">
         <v>54673.71837495033</v>
       </c>
-      <c r="O55" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P55" t="inlineStr">
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>6.444663434220649e-05</v>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>[0.0054088]</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>[186.37201145]</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>test_ID_109</t>
+          <t>test_ID_012</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4407,7 +4399,7 @@
         <v>0.000866</v>
       </c>
       <c r="H56" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I56" t="n">
         <v>3.175</v>
@@ -4419,38 +4411,38 @@
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356743739</v>
+        <v>0.0009362218356743738</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631023</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="inlineStr">
+        <v>50095.81368631024</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>0.0005357913646937737</v>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>[0.00574067]</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>[187.39180035]</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>test_ID_110</t>
+          <t>test_ID_013</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4478,7 +4470,7 @@
         <v>0.000866</v>
       </c>
       <c r="H57" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I57" t="n">
         <v>3.175</v>
@@ -4498,30 +4490,30 @@
       <c r="N57" t="n">
         <v>58316.18295655812</v>
       </c>
-      <c r="O57" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P57" t="inlineStr">
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>0.0001747938059600222</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>[0.00529155]</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>[191.95047384]</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>test_ID_111</t>
+          <t>test_ID_014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4549,7 +4541,7 @@
         <v>0.000866</v>
       </c>
       <c r="H58" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I58" t="n">
         <v>3.175</v>
@@ -4569,30 +4561,30 @@
       <c r="N58" t="n">
         <v>44272.16051279124</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>0.001127086786231615</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>[0.00658279]</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>[202.89022806]</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>test_ID_112</t>
+          <t>test_ID_015</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4620,54 +4612,54 @@
         <v>0.000866</v>
       </c>
       <c r="H59" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I59" t="n">
         <v>3.175</v>
       </c>
       <c r="J59" t="n">
-        <v>0.003679236313318536</v>
+        <v>0.003679236313318479</v>
       </c>
       <c r="K59" t="n">
         <v>159.315233127494</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002309406477392015</v>
+        <v>0.00230940647739198</v>
       </c>
       <c r="M59" t="n">
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>43301.16892758039</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.0009358046877390854</v>
+        <v>43301.16892758106</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.001142736282227179</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>[0.00663262]</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>[200.59782047]</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>test_ID_113</t>
+          <t>test_ID_016</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4695,50 +4687,50 @@
         <v>0.000866</v>
       </c>
       <c r="H60" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I60" t="n">
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002183439006668278</v>
+        <v>0.002183439006668277</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921078</v>
+        <v>0.001216178373921077</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676711</v>
-      </c>
-      <c r="O60" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P60" t="inlineStr">
+        <v>52310.56454676712</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0.0002063811979691773</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>[0.00580383]</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>[198.98072405]</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>test_ID_114</t>
+          <t>test_ID_017</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4766,7 +4758,7 @@
         <v>0.000866</v>
       </c>
       <c r="H61" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I61" t="n">
         <v>3.175</v>
@@ -4786,30 +4778,30 @@
       <c r="N61" t="n">
         <v>55099.56525272816</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="inlineStr">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>0.0003618505727106058</v>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>[0.00573765]</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>[205.94279353]</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>test_ID_115</t>
+          <t>test_ID_018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4837,54 +4829,50 @@
         <v>0.000866</v>
       </c>
       <c r="H62" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I62" t="n">
         <v>3.175</v>
       </c>
       <c r="J62" t="n">
-        <v>0.003625768647186322</v>
+        <v>0.003881752702090299</v>
       </c>
       <c r="K62" t="n">
         <v>157.454775694613</v>
       </c>
       <c r="L62" t="n">
-        <v>0.001727052401804525</v>
+        <v>0.002624151374523599</v>
       </c>
       <c r="M62" t="n">
-        <v>75</v>
+        <v>106.442938995528</v>
       </c>
       <c r="N62" t="n">
-        <v>43426.59199086005</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.0002559840549039771</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
-        </is>
+        <v>40562.80442848011</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>0.0009129031790100989</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663551]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>LPL @ 75</t>
+          <t>[188.02936756]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>test_ID_116</t>
+          <t>test_ID_038</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4912,7 +4900,7 @@
         <v>0.000866</v>
       </c>
       <c r="H63" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I63" t="n">
         <v>3.175</v>
@@ -4930,32 +4918,32 @@
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452444</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P63" t="inlineStr">
+        <v>51251.21984452443</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>-1.666305095732092e-05</v>
+      </c>
+      <c r="R63" t="inlineStr">
         <is>
           <t>[0.00578348]</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>[193.90783315]</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>test_ID_117</t>
+          <t>test_ID_039</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4983,7 +4971,7 @@
         <v>0.000866</v>
       </c>
       <c r="H64" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I64" t="n">
         <v>3.175</v>
@@ -5003,30 +4991,30 @@
       <c r="N64" t="n">
         <v>49625.43212271877</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="inlineStr">
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>-5.101728079533185e-05</v>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>[0.00566904]</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>[182.07793808]</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>test_ID_118</t>
+          <t>test_ID_040</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5054,50 +5042,50 @@
         <v>0.000866</v>
       </c>
       <c r="H65" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I65" t="n">
         <v>3.175</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002801238875892799</v>
+        <v>0.002801238875892798</v>
       </c>
       <c r="K65" t="n">
         <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007091321681881988</v>
+        <v>0.0007091321681881983</v>
       </c>
       <c r="M65" t="n">
         <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>49095.92168230859</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="inlineStr">
+        <v>49095.9216823086</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>1.674164147798338e-06</v>
+      </c>
+      <c r="R65" t="inlineStr">
         <is>
           <t>[0.00579331]</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>[186.23587121]</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>test_ID_119</t>
+          <t>test_ID_059</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5125,54 +5113,54 @@
         <v>0.000866</v>
       </c>
       <c r="H66" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I66" t="n">
         <v>3.175</v>
       </c>
       <c r="J66" t="n">
-        <v>0.002601363834096593</v>
+        <v>0.002601363834096357</v>
       </c>
       <c r="K66" t="n">
         <v>125.650398590921</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0020703188077945</v>
+        <v>0.002070318807794312</v>
       </c>
       <c r="M66" t="n">
         <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>48301.73962749703</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.0002349608756213551</v>
+        <v>48301.73962750141</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>9.552114163655697e-05</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>[0.00581521]</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>[184.28113182]</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>test_ID_120</t>
+          <t>test_ID_061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5200,7 +5188,7 @@
         <v>0.000866</v>
       </c>
       <c r="H67" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I67" t="n">
         <v>3.175</v>
@@ -5218,32 +5206,32 @@
         <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>42336.50950927416</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="inlineStr">
+        <v>42336.50950927417</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>0.001640142602827623</v>
+      </c>
+      <c r="R67" t="inlineStr">
         <is>
           <t>[0.00681378]</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>[203.79857259]</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>test_ID_121</t>
+          <t>test_ID_062</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5271,54 +5259,54 @@
         <v>0.000866</v>
       </c>
       <c r="H68" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I68" t="n">
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.004027151846017031</v>
+        <v>0.004027151846016951</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.002438382967616403</v>
+        <v>0.002438382967616354</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>41010.78515068252</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.0009581021085890004</v>
+        <v>41010.78515068335</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0008713315624624507</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>[0.00699032]</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>[204.65696578]</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>test_ID_122</t>
+          <t>test_ID_063</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5346,50 +5334,50 @@
         <v>0.000866</v>
       </c>
       <c r="H69" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I69" t="n">
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004318579631240166</v>
+        <v>0.004318579631240168</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338465</v>
+        <v>0.001009341110338468</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.82364287472</v>
-      </c>
-      <c r="O69" t="n">
-        <v>8.673617379884035e-19</v>
-      </c>
-      <c r="P69" t="inlineStr">
+        <v>43615.8236428747</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>0.0008277733694668681</v>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>[0.0071111]</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>[222.92474578]</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>test_ID_123</t>
+          <t>test_ID_064</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5417,13 +5405,13 @@
         <v>0.000866</v>
       </c>
       <c r="H70" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I70" t="n">
         <v>3.175</v>
       </c>
       <c r="J70" t="n">
-        <v>0.004512857274977414</v>
+        <v>0.004512857274977415</v>
       </c>
       <c r="K70" t="n">
         <v>178.246468462332</v>
@@ -5435,32 +5423,32 @@
         <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>39497.4752360685</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="inlineStr">
+        <v>39497.47523606849</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>0.0008636320765332151</v>
+      </c>
+      <c r="R70" t="inlineStr">
         <is>
           <t>[0.0073493]</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>[211.28392598]</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>test_ID_124</t>
+          <t>test_ID_065</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5488,7 +5476,7 @@
         <v>0.000866</v>
       </c>
       <c r="H71" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I71" t="n">
         <v>3.175</v>
@@ -5500,38 +5488,38 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.000774351984478844</v>
+        <v>0.0007743519844788439</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970555</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="inlineStr">
+        <v>37416.04709970556</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>0.0003898922701446438</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>[0.00546613]</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>[129.6889121]</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>test_ID_125</t>
+          <t>test_ID_066</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5559,7 +5547,7 @@
         <v>0.000866</v>
       </c>
       <c r="H72" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I72" t="n">
         <v>3.175</v>
@@ -5579,30 +5567,30 @@
       <c r="N72" t="n">
         <v>42175.08103243844</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="inlineStr">
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>0.0006093202581949112</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>[0.00514178]</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>[132.50463468]</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>test_ID_126</t>
+          <t>test_ID_067</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5630,7 +5618,7 @@
         <v>0.000866</v>
       </c>
       <c r="H73" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I73" t="n">
         <v>3.175</v>
@@ -5650,30 +5638,30 @@
       <c r="N73" t="n">
         <v>34906.89202062578</v>
       </c>
-      <c r="O73" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P73" t="inlineStr">
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>0.0008211559912235707</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>[0.00605676]</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>[141.60878781]</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>test_ID_127</t>
+          <t>test_ID_068</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5701,7 +5689,7 @@
         <v>0.000866</v>
       </c>
       <c r="H74" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I74" t="n">
         <v>3.175</v>
@@ -5721,30 +5709,30 @@
       <c r="N74" t="n">
         <v>38109.35075740957</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="inlineStr">
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>0.0007788589957005581</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>[0.00557443]</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>[136.21916497]</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>test_ID_128</t>
+          <t>test_ID_069</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5772,19 +5760,19 @@
         <v>0.000866</v>
       </c>
       <c r="H75" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I75" t="n">
         <v>3.175</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0008661956129445198</v>
+        <v>0.00086619561294452</v>
       </c>
       <c r="K75" t="n">
         <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0004282357690355198</v>
+        <v>0.0004282357690355199</v>
       </c>
       <c r="M75" t="n">
         <v>23.0730727529062</v>
@@ -5792,30 +5780,30 @@
       <c r="N75" t="n">
         <v>53879.36837894645</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="inlineStr">
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>0.0005373300618622199</v>
+      </c>
+      <c r="R75" t="inlineStr">
         <is>
           <t>[0.00462111]</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>[141.22362941]</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>test_ID_129</t>
+          <t>test_ID_070</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5843,7 +5831,7 @@
         <v>0.000866</v>
       </c>
       <c r="H76" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I76" t="n">
         <v>3.175</v>
@@ -5863,30 +5851,30 @@
       <c r="N76" t="n">
         <v>37447.92191543245</v>
       </c>
-      <c r="O76" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P76" t="inlineStr">
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>0.001074375897386028</v>
+      </c>
+      <c r="R76" t="inlineStr">
         <is>
           <t>[0.00564098]</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>[136.3471848]</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>test_ID_130</t>
+          <t>test_ID_071</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5914,7 +5902,7 @@
         <v>0.000866</v>
       </c>
       <c r="H77" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I77" t="n">
         <v>3.175</v>
@@ -5926,7 +5914,7 @@
         <v>70.2101465114052</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0009939696897874404</v>
+        <v>0.0009939696897874406</v>
       </c>
       <c r="M77" t="n">
         <v>38.8097050938778</v>
@@ -5934,30 +5922,30 @@
       <c r="N77" t="n">
         <v>39045.15951807063</v>
       </c>
-      <c r="O77" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P77" t="inlineStr">
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>0.0006566808991932407</v>
+      </c>
+      <c r="R77" t="inlineStr">
         <is>
           <t>[0.00533035]</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>[130.03415098]</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>test_ID_131</t>
+          <t>test_ID_072</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5985,50 +5973,50 @@
         <v>0.000866</v>
       </c>
       <c r="H78" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I78" t="n">
         <v>3.175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.002908448967036807</v>
+        <v>0.002908448967036806</v>
       </c>
       <c r="K78" t="n">
         <v>110.081902277342</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0004249535703063062</v>
+        <v>0.0004249535703063059</v>
       </c>
       <c r="M78" t="n">
         <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>37849.00595642767</v>
-      </c>
-      <c r="O78" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P78" t="inlineStr">
+        <v>37849.00595642768</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>0.001021084008256706</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>[0.0058033]</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>[143.95125506]</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>test_ID_132</t>
+          <t>test_ID_073</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6056,7 +6044,7 @@
         <v>0.000866</v>
       </c>
       <c r="H79" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I79" t="n">
         <v>3.175</v>
@@ -6068,38 +6056,38 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325137</v>
+        <v>0.0008311687471325139</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458698</v>
-      </c>
-      <c r="O79" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P79" t="inlineStr">
+        <v>43221.08272458697</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>0.0001476417332973139</v>
+      </c>
+      <c r="R79" t="inlineStr">
         <is>
           <t>[0.00536874]</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>[145.60052924]</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>test_ID_133</t>
+          <t>test_ID_074</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6127,7 +6115,7 @@
         <v>0.000866</v>
       </c>
       <c r="H80" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I80" t="n">
         <v>3.175</v>
@@ -6139,7 +6127,7 @@
         <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0003564904747817477</v>
+        <v>0.0003564904747817478</v>
       </c>
       <c r="M80" t="n">
         <v>12.64659236909</v>
@@ -6147,30 +6135,30 @@
       <c r="N80" t="n">
         <v>35475.26024876975</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="inlineStr">
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>0.0006196032013576478</v>
+      </c>
+      <c r="R80" t="inlineStr">
         <is>
           <t>[0.00592656]</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>[139.29562962]</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>test_ID_134</t>
+          <t>test_ID_075</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6198,7 +6186,7 @@
         <v>0.000866</v>
       </c>
       <c r="H81" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I81" t="n">
         <v>3.175</v>
@@ -6210,7 +6198,7 @@
         <v>115.716025680978</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0006753540432521837</v>
+        <v>0.0006753540432521833</v>
       </c>
       <c r="M81" t="n">
         <v>29.5464961429663</v>
@@ -6218,30 +6206,30 @@
       <c r="N81" t="n">
         <v>43749.63981955958</v>
       </c>
-      <c r="O81" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P81" t="inlineStr">
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>0.0002125575271850833</v>
+      </c>
+      <c r="R81" t="inlineStr">
         <is>
           <t>[0.00580823]</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>[166.60858725]</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>test_ID_135</t>
+          <t>test_ID_060</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6269,55 +6257,55 @@
         <v>0.000866</v>
       </c>
       <c r="H82" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I82" t="n">
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0009160071804499832</v>
+        <v>0.000916007180450091</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003289580731544832</v>
+        <v>0.0003289580731545218</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>47052.00613828091</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="inlineStr">
+        <v>47052.00613827537</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>0.000333785642721991</v>
+      </c>
+      <c r="R82" t="inlineStr">
         <is>
           <t>[0.00507381]</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>[144.6287459]</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>test_ID_136</t>
+          <t>test_ID_041</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T_300_A_1_156_032_18.csv</t>
+          <t>T_300_A_2_157_044_19.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6334,61 +6322,61 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>0.000866</v>
       </c>
       <c r="H83" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I83" t="n">
         <v>3.175</v>
       </c>
       <c r="J83" t="n">
-        <v>0.001611940297469171</v>
+        <v>0.001735194130145886</v>
       </c>
       <c r="K83" t="n">
-        <v>51.7861136852212</v>
+        <v>56.7732969744529</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0008208543378776718</v>
+        <v>0.001302955958264386</v>
       </c>
       <c r="M83" t="n">
-        <v>26.3712347951603</v>
+        <v>42.6310257037105</v>
       </c>
       <c r="N83" t="n">
-        <v>32126.57054763632</v>
-      </c>
-      <c r="O83" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
+        <v>32718.70045438644</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0.0009347059551158865</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>[0.0041256]</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>[69.54697523]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>test_ID_137</t>
+          <t>test_ID_057</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T_300_A_2_157_044_19.csv</t>
+          <t>T_300_A_3_158_043_20.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6405,65 +6393,61 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>0.000866</v>
       </c>
       <c r="H84" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I84" t="n">
         <v>3.175</v>
       </c>
       <c r="J84" t="n">
-        <v>0.001344874682175612</v>
+        <v>0.001133706609370434</v>
       </c>
       <c r="K84" t="n">
-        <v>56.7732969744529</v>
+        <v>56.9308587258361</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0007106552308107723</v>
+        <v>2.996225910133389e-05</v>
       </c>
       <c r="M84" t="n">
-        <v>30</v>
+        <v>1.50460191896753</v>
       </c>
       <c r="N84" t="n">
-        <v>42214.56298263449</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.0003903194479702745</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
-        </is>
+        <v>50216.57124981459</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>-0.0001436401650030661</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.0035729]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>LPL @ 30</t>
+          <t>[78.98547761]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>test_ID_138</t>
+          <t>test_ID_058</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T_300_A_3_158_043_20.csv</t>
+          <t>T_300_A_1_156_032_18.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6480,56 +6464,56 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0.000866</v>
       </c>
       <c r="H85" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I85" t="n">
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370296</v>
+        <v>0.001611940297469171</v>
       </c>
       <c r="K85" t="n">
-        <v>56.9308587258361</v>
+        <v>51.7861136852212</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910133042e-05</v>
+        <v>0.0008208543378776712</v>
       </c>
       <c r="M85" t="n">
-        <v>1.50460191896753</v>
+        <v>26.3712347951603</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124982067</v>
-      </c>
-      <c r="O85" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
+        <v>32126.57054763632</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>0.0001791885963953713</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>test_ID_139</t>
+          <t>test_ID_042</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6557,7 +6541,7 @@
         <v>0.000866</v>
       </c>
       <c r="H86" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I86" t="n">
         <v>3.175</v>
@@ -6569,38 +6553,38 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684954</v>
+        <v>0.0006235740665684951</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290323</v>
-      </c>
-      <c r="O86" t="n">
-        <v>-2.168404344971009e-19</v>
-      </c>
-      <c r="P86" t="inlineStr">
+        <v>53428.72227290324</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>9.602688302589506e-05</v>
+      </c>
+      <c r="R86" t="inlineStr">
         <is>
           <t>[0.00356227]</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>[83.46997454]</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>test_ID_140</t>
+          <t>test_ID_043</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6628,50 +6612,50 @@
         <v>0.000866</v>
       </c>
       <c r="H87" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I87" t="n">
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900892</v>
+        <v>0.001197085137900995</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772308797e-05</v>
+        <v>8.908567772309556e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920808</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="inlineStr">
+        <v>43347.78812920433</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>-0.0009169705344778045</v>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
           <t>[0.00384293]</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>[79.88715192]</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>test_ID_141</t>
+          <t>test_ID_044</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6699,13 +6683,13 @@
         <v>0.000866</v>
       </c>
       <c r="H88" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I88" t="n">
         <v>3.175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0007068327420114109</v>
+        <v>0.0007068327420114108</v>
       </c>
       <c r="K88" t="n">
         <v>43.4660299348499</v>
@@ -6717,32 +6701,32 @@
         <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>61494.08106245904</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="inlineStr">
+        <v>61494.08106245905</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>0.0001588269294999108</v>
+      </c>
+      <c r="R88" t="inlineStr">
         <is>
           <t>[0.00331263]</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>[80.71874585]</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>test_ID_142</t>
+          <t>test_ID_045</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6770,7 +6754,7 @@
         <v>0.000866</v>
       </c>
       <c r="H89" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I89" t="n">
         <v>3.175</v>
@@ -6782,38 +6766,38 @@
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002320617808629956</v>
+        <v>0.0002320617808629959</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>40403.94854116061</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P89" t="inlineStr">
+        <v>40403.9485411606</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>0.0003953219097204959</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
           <t>[0.00411088]</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>[85.28803901]</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>test_ID_143</t>
+          <t>test_ID_046</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6841,7 +6825,7 @@
         <v>0.000866</v>
       </c>
       <c r="H90" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I90" t="n">
         <v>3.175</v>
@@ -6853,38 +6837,38 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584647</v>
+        <v>0.0009467802092584651</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444176</v>
-      </c>
-      <c r="O90" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P90" t="inlineStr">
+        <v>41908.23072444175</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>0.000458888064130165</v>
+      </c>
+      <c r="R90" t="inlineStr">
         <is>
           <t>[0.00418117]</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>[91.40909649]</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>test_ID_144</t>
+          <t>test_ID_047</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6912,7 +6896,7 @@
         <v>0.000866</v>
       </c>
       <c r="H91" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I91" t="n">
         <v>3.175</v>
@@ -6932,30 +6916,30 @@
       <c r="N91" t="n">
         <v>54375.76140805859</v>
       </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="inlineStr">
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>-1.897273397861131e-05</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>[0.00384502]</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>[100.32410037]</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>test_ID_145</t>
+          <t>test_ID_048</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6983,7 +6967,7 @@
         <v>0.000866</v>
       </c>
       <c r="H92" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I92" t="n">
         <v>3.175</v>
@@ -6995,38 +6979,38 @@
         <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0001282871298544488</v>
+        <v>0.0001282871298544483</v>
       </c>
       <c r="M92" t="n">
         <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>43739.69865063917</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P92" t="inlineStr">
+        <v>43739.69865063918</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>-0.0001868859276654517</v>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>[0.00382425]</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>[79.79221366]</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>test_ID_146</t>
+          <t>test_ID_049</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7054,54 +7038,50 @@
         <v>0.000866</v>
       </c>
       <c r="H93" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I93" t="n">
         <v>3.175</v>
       </c>
       <c r="J93" t="n">
-        <v>0.001651260676033587</v>
+        <v>0.002307464252340363</v>
       </c>
       <c r="K93" t="n">
         <v>66.9553327522687</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0007398637008391102</v>
+        <v>0.001651962618843763</v>
       </c>
       <c r="M93" t="n">
-        <v>30</v>
+        <v>47.9347433993002</v>
       </c>
       <c r="N93" t="n">
-        <v>40548.00899946268</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.0006562035763067763</v>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
-        </is>
+        <v>29016.84508627111</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>0.001262320824785163</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00485937]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>LPL @ 30</t>
+          <t>[82.96977647]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>test_ID_147</t>
+          <t>test_ID_050</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7129,50 +7109,50 @@
         <v>0.000866</v>
       </c>
       <c r="H94" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I94" t="n">
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0009501033114772988</v>
+        <v>0.000950103311477327</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292586e-05</v>
+        <v>3.835712248292705e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324187</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="inlineStr">
+        <v>45349.66936324052</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>-0.0003254508736255729</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>[0.00392154]</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>[87.14115823]</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>test_ID_148</t>
+          <t>test_ID_051</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7200,50 +7180,50 @@
         <v>0.000866</v>
       </c>
       <c r="H95" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I95" t="n">
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0013102739596552</v>
+        <v>0.00131027395965521</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.03080976708099e-05</v>
+        <v>2.030809767081032e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.51871586858</v>
-      </c>
-      <c r="O95" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P95" t="inlineStr">
+        <v>45579.5187158682</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>-0.0002985639296833897</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>[0.00376918]</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>[80.63825522]</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>test_ID_149</t>
+          <t>test_ID_052</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7271,7 +7251,7 @@
         <v>0.000866</v>
       </c>
       <c r="H96" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I96" t="n">
         <v>3.175</v>
@@ -7291,30 +7271,30 @@
       <c r="N96" t="n">
         <v>71694.39434354132</v>
       </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="inlineStr">
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>0.0008890854041372103</v>
+      </c>
+      <c r="R96" t="inlineStr">
         <is>
           <t>[0.00315583]</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>[82.86657251]</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>test_ID_150</t>
+          <t>test_ID_053</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7342,50 +7322,50 @@
         <v>0.000866</v>
       </c>
       <c r="H97" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I97" t="n">
         <v>3.175</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0009483485549953443</v>
+        <v>0.000948348554995344</v>
       </c>
       <c r="K97" t="n">
         <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0006561700142760442</v>
+        <v>0.000656170014276044</v>
       </c>
       <c r="M97" t="n">
         <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>43714.75818065651</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="inlineStr">
+        <v>43714.75818065652</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>-0.000222000120179656</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>[0.0037197]</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>[75.17641343]</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>test_ID_151</t>
+          <t>test_ID_054</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7413,7 +7393,7 @@
         <v>0.000866</v>
       </c>
       <c r="H98" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I98" t="n">
         <v>3.175</v>
@@ -7425,7 +7405,7 @@
         <v>55.1712364974773</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0006578419678800565</v>
+        <v>0.0006578419678800566</v>
       </c>
       <c r="M98" t="n">
         <v>31.5012589561555</v>
@@ -7433,30 +7413,30 @@
       <c r="N98" t="n">
         <v>47885.75447332828</v>
       </c>
-      <c r="O98" t="n">
-        <v>2.168404344971009e-19</v>
-      </c>
-      <c r="P98" t="inlineStr">
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>0.002770838845663657</v>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>[0.00366839]</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>[79.8920284]</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>test_ID_152</t>
+          <t>test_ID_055</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7484,54 +7464,50 @@
         <v>0.000866</v>
       </c>
       <c r="H99" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I99" t="n">
         <v>3.175</v>
       </c>
       <c r="J99" t="n">
-        <v>0.002685416160155548</v>
+        <v>0.002952844901490266</v>
       </c>
       <c r="K99" t="n">
         <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001123631928050033</v>
+        <v>0.001928083322311666</v>
       </c>
       <c r="M99" t="n">
-        <v>30</v>
+        <v>46.8159610839017</v>
       </c>
       <c r="N99" t="n">
-        <v>26699.13452180238</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.0002674287413347185</v>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
-        </is>
+        <v>24281.08813667447</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>0.001264873486175366</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00559269]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>LPL @ 30</t>
+          <t>[87.23453043]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>test_ID_153</t>
+          <t>test_ID_056</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7559,54 +7535,54 @@
         <v>0.000866</v>
       </c>
       <c r="H100" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I100" t="n">
         <v>3.175</v>
       </c>
       <c r="J100" t="n">
-        <v>0.002642795109135915</v>
+        <v>0.003320356954643414</v>
       </c>
       <c r="K100" t="n">
         <v>77.33133438958311</v>
       </c>
       <c r="L100" t="n">
-        <v>0.001025248741663475</v>
+        <v>0.002576205607353917</v>
       </c>
       <c r="M100" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N100" t="n">
-        <v>29261.19172926245</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.001375693056716632</v>
+        <v>23290.0665337917</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
-        </is>
+          <t>LPL = 60</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.001600669794872614</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00581256]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>LPL @ 30</t>
+          <t>[88.79472099]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>test_ID_154</t>
+          <t>test_ID_077</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7634,7 +7610,7 @@
         <v>0.000866</v>
       </c>
       <c r="H101" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I101" t="n">
         <v>3.175</v>
@@ -7654,25 +7630,25 @@
       <c r="N101" t="n">
         <v>33222.98543617944</v>
       </c>
-      <c r="O101" t="n">
-        <v>4.336808689942018e-19</v>
-      </c>
-      <c r="P101" t="inlineStr">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>0.0006138388323634388</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>[0.00479692]</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>[92.92190035]</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/info/02 processed info.xlsx
+++ b/example/info/02 processed info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>test id</t>
+          <t>test_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>old filename</t>
+          <t>old_filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>test_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A_0 (mm)</t>
+          <t>A_0_(mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h_0 (mm)</t>
+          <t>h_0_(mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>foot correction</t>
+          <t>foot_correction</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -527,6 +527,16 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>YP_0.002_1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>UTS_0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>UTS_1</t>
         </is>
       </c>
     </row>
@@ -590,15 +600,17 @@
       <c r="Q2" t="n">
         <v>0.000343613133393793</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.005955339826859217</v>
+      </c>
+      <c r="S2" t="n">
+        <v>251.965967279652</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.07539615443422459</v>
+      </c>
+      <c r="U2" t="n">
+        <v>277.080919182671</v>
       </c>
     </row>
     <row r="3">
@@ -661,15 +673,17 @@
       <c r="Q3" t="n">
         <v>0.0004895812404323431</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0.006653338845315306</v>
+      </c>
+      <c r="S3" t="n">
+        <v>252.8874870084364</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.07875696706349665</v>
+      </c>
+      <c r="U3" t="n">
+        <v>277.834142238505</v>
       </c>
     </row>
     <row r="4">
@@ -732,15 +746,17 @@
       <c r="Q4" t="n">
         <v>0.000530764702328129</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0.005892677469428021</v>
+      </c>
+      <c r="S4" t="n">
+        <v>254.0244722851376</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.07814439258086513</v>
+      </c>
+      <c r="U4" t="n">
+        <v>280.209188306993</v>
       </c>
     </row>
     <row r="5">
@@ -803,15 +819,17 @@
       <c r="Q5" t="n">
         <v>9.183978673318427e-05</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0.005408015414077331</v>
+      </c>
+      <c r="S5" t="n">
+        <v>239.8278495292511</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06707426910420559</v>
+      </c>
+      <c r="U5" t="n">
+        <v>265.627730964216</v>
       </c>
     </row>
     <row r="6">
@@ -857,13 +875,13 @@
         <v>192.947593520996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005903185807671863</v>
+        <v>0.0005903185807671859</v>
       </c>
       <c r="M6" t="n">
         <v>35.2190159803605</v>
       </c>
       <c r="N6" t="n">
-        <v>59661.03241166723</v>
+        <v>59661.03241166724</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -872,17 +890,19 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>-0.0004346933673407137</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
+        <v>-0.0004346933673407142</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.006099095468387027</v>
+      </c>
+      <c r="S6" t="n">
+        <v>244.5562675979567</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.07748823857970359</v>
+      </c>
+      <c r="U6" t="n">
+        <v>273.200295913472</v>
       </c>
     </row>
     <row r="7">
@@ -945,15 +965,17 @@
       <c r="Q7" t="n">
         <v>0.0003567081833944904</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0.006304948317891945</v>
+      </c>
+      <c r="S7" t="n">
+        <v>239.7774237994842</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.07394407507141819</v>
+      </c>
+      <c r="U7" t="n">
+        <v>267.412779741201</v>
       </c>
     </row>
     <row r="8">
@@ -1016,15 +1038,17 @@
       <c r="Q8" t="n">
         <v>0.0001712096225899404</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
+      <c r="R8" t="n">
+        <v>0.00651890866018981</v>
+      </c>
+      <c r="S8" t="n">
+        <v>279.6734324776601</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.09270740042560785</v>
+      </c>
+      <c r="U8" t="n">
+        <v>308.906990845537</v>
       </c>
     </row>
     <row r="9">
@@ -1087,15 +1111,17 @@
       <c r="Q9" t="n">
         <v>0.0004134955762651457</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.00662082]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[267.42109477]</t>
-        </is>
+      <c r="R9" t="n">
+        <v>0.00662081759751331</v>
+      </c>
+      <c r="S9" t="n">
+        <v>267.421094767428</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1130343672647691</v>
+      </c>
+      <c r="U9" t="n">
+        <v>300.687648326774</v>
       </c>
     </row>
     <row r="10">
@@ -1158,15 +1184,17 @@
       <c r="Q10" t="n">
         <v>-0.0004316940708122634</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>[0.00687551]</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>[264.47172192]</t>
-        </is>
+      <c r="R10" t="n">
+        <v>0.006875505241530501</v>
+      </c>
+      <c r="S10" t="n">
+        <v>264.4717219167996</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.05986655723622183</v>
+      </c>
+      <c r="U10" t="n">
+        <v>292.441626898986</v>
       </c>
     </row>
     <row r="11">
@@ -1229,15 +1257,17 @@
       <c r="Q11" t="n">
         <v>-0.0002246542070388807</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
+      <c r="R11" t="n">
+        <v>0.006354360819481954</v>
+      </c>
+      <c r="S11" t="n">
+        <v>253.1524060217465</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.07899122785625572</v>
+      </c>
+      <c r="U11" t="n">
+        <v>285.69504833639</v>
       </c>
     </row>
     <row r="12">
@@ -1300,15 +1330,17 @@
       <c r="Q12" t="n">
         <v>0.0008862018816846342</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.00692006]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[258.26045203]</t>
-        </is>
+      <c r="R12" t="n">
+        <v>0.006920060520437712</v>
+      </c>
+      <c r="S12" t="n">
+        <v>258.2604520284232</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.08743702618949672</v>
+      </c>
+      <c r="U12" t="n">
+        <v>291.821443265679</v>
       </c>
     </row>
     <row r="13">
@@ -1371,15 +1403,17 @@
       <c r="Q13" t="n">
         <v>0.0002462890752533788</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
+      <c r="R13" t="n">
+        <v>0.00656171146327205</v>
+      </c>
+      <c r="S13" t="n">
+        <v>248.9196101116396</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.09356067858824338</v>
+      </c>
+      <c r="U13" t="n">
+        <v>282.622139614456</v>
       </c>
     </row>
     <row r="14">
@@ -1442,15 +1476,17 @@
       <c r="Q14" t="n">
         <v>0.0003095039103118984</v>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
+      <c r="R14" t="n">
+        <v>0.006319480966726892</v>
+      </c>
+      <c r="S14" t="n">
+        <v>248.3971271986643</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0832295080824403</v>
+      </c>
+      <c r="U14" t="n">
+        <v>276.607824736583</v>
       </c>
     </row>
     <row r="15">
@@ -1513,15 +1549,17 @@
       <c r="Q15" t="n">
         <v>0.0001167273405350824</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
+      <c r="R15" t="n">
+        <v>0.00618975878531404</v>
+      </c>
+      <c r="S15" t="n">
+        <v>245.7344205904582</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.08975918584984638</v>
+      </c>
+      <c r="U15" t="n">
+        <v>276.35304034072</v>
       </c>
     </row>
     <row r="16">
@@ -1584,15 +1622,17 @@
       <c r="Q16" t="n">
         <v>9.531691839774926e-05</v>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
+      <c r="R16" t="n">
+        <v>0.005270409387028891</v>
+      </c>
+      <c r="S16" t="n">
+        <v>240.6787178901594</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.09074228584900475</v>
+      </c>
+      <c r="U16" t="n">
+        <v>274.610658491</v>
       </c>
     </row>
     <row r="17">
@@ -1655,15 +1695,17 @@
       <c r="Q17" t="n">
         <v>-0.0001668037782862342</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
+      <c r="R17" t="n">
+        <v>0.007060996000749431</v>
+      </c>
+      <c r="S17" t="n">
+        <v>303.2888133397277</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.07904338585557306</v>
+      </c>
+      <c r="U17" t="n">
+        <v>331.306057883049</v>
       </c>
     </row>
     <row r="18">
@@ -1726,15 +1768,17 @@
       <c r="Q18" t="n">
         <v>0.0004536535710335157</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
+      <c r="R18" t="n">
+        <v>0.007677373993186945</v>
+      </c>
+      <c r="S18" t="n">
+        <v>283.1046672576235</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.09452658219299272</v>
+      </c>
+      <c r="U18" t="n">
+        <v>304.743333329536</v>
       </c>
     </row>
     <row r="19">
@@ -1797,15 +1841,17 @@
       <c r="Q19" t="n">
         <v>-0.0005549399286298978</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
+      <c r="R19" t="n">
+        <v>0.006863290910295042</v>
+      </c>
+      <c r="S19" t="n">
+        <v>274.6912529499168</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0701139263847103</v>
+      </c>
+      <c r="U19" t="n">
+        <v>319.747323675888</v>
       </c>
     </row>
     <row r="20">
@@ -1868,15 +1914,17 @@
       <c r="Q20" t="n">
         <v>-0.0004259274742736629</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
+      <c r="R20" t="n">
+        <v>0.005872942843778696</v>
+      </c>
+      <c r="S20" t="n">
+        <v>267.7587453982311</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.08178154082245984</v>
+      </c>
+      <c r="U20" t="n">
+        <v>289.881300173436</v>
       </c>
     </row>
     <row r="21">
@@ -1939,15 +1987,17 @@
       <c r="Q21" t="n">
         <v>-8.019852286719363e-05</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
+      <c r="R21" t="n">
+        <v>0.006025575179708148</v>
+      </c>
+      <c r="S21" t="n">
+        <v>240.2186715339491</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.05968749180149951</v>
+      </c>
+      <c r="U21" t="n">
+        <v>252.998046400138</v>
       </c>
     </row>
     <row r="22">
@@ -2010,15 +2060,17 @@
       <c r="Q22" t="n">
         <v>9.097191051991339e-05</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
+      <c r="R22" t="n">
+        <v>0.005540301663927031</v>
+      </c>
+      <c r="S22" t="n">
+        <v>205.9405298924263</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.04688409558147731</v>
+      </c>
+      <c r="U22" t="n">
+        <v>211.730033990944</v>
       </c>
     </row>
     <row r="23">
@@ -2081,15 +2133,17 @@
       <c r="Q23" t="n">
         <v>0.0004286968068274045</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
+      <c r="R23" t="n">
+        <v>0.006057229858952722</v>
+      </c>
+      <c r="S23" t="n">
+        <v>240.4012574278262</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0606128507806293</v>
+      </c>
+      <c r="U23" t="n">
+        <v>253.567507704706</v>
       </c>
     </row>
     <row r="24">
@@ -2152,15 +2206,17 @@
       <c r="Q24" t="n">
         <v>-9.209623205211912e-05</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
+      <c r="R24" t="n">
+        <v>0.005850360467485641</v>
+      </c>
+      <c r="S24" t="n">
+        <v>228.5332318441081</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.05555043014252268</v>
+      </c>
+      <c r="U24" t="n">
+        <v>248.409143478597</v>
       </c>
     </row>
     <row r="25">
@@ -2223,15 +2279,17 @@
       <c r="Q25" t="n">
         <v>-7.758201511646372e-05</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
+      <c r="R25" t="n">
+        <v>0.005860164602788233</v>
+      </c>
+      <c r="S25" t="n">
+        <v>236.1243081588227</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.05623690138902044</v>
+      </c>
+      <c r="U25" t="n">
+        <v>252.242629039729</v>
       </c>
     </row>
     <row r="26">
@@ -2294,15 +2352,17 @@
       <c r="Q26" t="n">
         <v>0.0002957619767601969</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
+      <c r="R26" t="n">
+        <v>0.006180515966385297</v>
+      </c>
+      <c r="S26" t="n">
+        <v>236.0429075417685</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.055440394783417</v>
+      </c>
+      <c r="U26" t="n">
+        <v>252.400500707896</v>
       </c>
     </row>
     <row r="27">
@@ -2365,15 +2425,17 @@
       <c r="Q27" t="n">
         <v>-0.0002421665394191476</v>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
+      <c r="R27" t="n">
+        <v>0.00625276335431681</v>
+      </c>
+      <c r="S27" t="n">
+        <v>249.0340672740449</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.08676426820902705</v>
+      </c>
+      <c r="U27" t="n">
+        <v>271.291495142471</v>
       </c>
     </row>
     <row r="28">
@@ -2436,15 +2498,17 @@
       <c r="Q28" t="n">
         <v>0.0004348944450230073</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
+      <c r="R28" t="n">
+        <v>0.006080505288134346</v>
+      </c>
+      <c r="S28" t="n">
+        <v>249.6013985008044</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.08765219920682091</v>
+      </c>
+      <c r="U28" t="n">
+        <v>271.450873256742</v>
       </c>
     </row>
     <row r="29">
@@ -2507,15 +2571,17 @@
       <c r="Q29" t="n">
         <v>-1.811243338828211e-05</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
+      <c r="R29" t="n">
+        <v>0.006042591421620828</v>
+      </c>
+      <c r="S29" t="n">
+        <v>247.4459073619275</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.09052019616698781</v>
+      </c>
+      <c r="U29" t="n">
+        <v>270.205556838554</v>
       </c>
     </row>
     <row r="30">
@@ -2578,15 +2644,17 @@
       <c r="Q30" t="n">
         <v>9.650639171126857e-05</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
+      <c r="R30" t="n">
+        <v>0.00562653037186802</v>
+      </c>
+      <c r="S30" t="n">
+        <v>243.5680344239455</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.06791943798146087</v>
+      </c>
+      <c r="U30" t="n">
+        <v>263.604579125519</v>
       </c>
     </row>
     <row r="31">
@@ -2649,15 +2717,17 @@
       <c r="Q31" t="n">
         <v>0.001050742857985741</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
+      <c r="R31" t="n">
+        <v>0.007014095061474104</v>
+      </c>
+      <c r="S31" t="n">
+        <v>247.2504348145901</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.06481664083431145</v>
+      </c>
+      <c r="U31" t="n">
+        <v>264.757089651222</v>
       </c>
     </row>
     <row r="32">
@@ -2720,15 +2790,17 @@
       <c r="Q32" t="n">
         <v>-4.507463801850802e-05</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
+      <c r="R32" t="n">
+        <v>0.00493244151691097</v>
+      </c>
+      <c r="S32" t="n">
+        <v>249.5550089922701</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0724968705208921</v>
+      </c>
+      <c r="U32" t="n">
+        <v>271.657851543928</v>
       </c>
     </row>
     <row r="33">
@@ -2791,15 +2863,17 @@
       <c r="Q33" t="n">
         <v>0.0006475197704802183</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
+      <c r="R33" t="n">
+        <v>0.006397126507026385</v>
+      </c>
+      <c r="S33" t="n">
+        <v>237.7582057803729</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.06327855230482841</v>
+      </c>
+      <c r="U33" t="n">
+        <v>253.493165069991</v>
       </c>
     </row>
     <row r="34">
@@ -2862,15 +2936,17 @@
       <c r="Q34" t="n">
         <v>1.660443807201283e-06</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
+      <c r="R34" t="n">
+        <v>0.0050779215058355</v>
+      </c>
+      <c r="S34" t="n">
+        <v>234.1739600944735</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0581172248841626</v>
+      </c>
+      <c r="U34" t="n">
+        <v>250.46657626376</v>
       </c>
     </row>
     <row r="35">
@@ -2933,15 +3009,17 @@
       <c r="Q35" t="n">
         <v>4.135819297285646e-05</v>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
+      <c r="R35" t="n">
+        <v>0.00557582768434924</v>
+      </c>
+      <c r="S35" t="n">
+        <v>235.1678917258114</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.06177096046406755</v>
+      </c>
+      <c r="U35" t="n">
+        <v>251.402613069041</v>
       </c>
     </row>
     <row r="36">
@@ -3004,15 +3082,17 @@
       <c r="Q36" t="n">
         <v>0.001131404196779302</v>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
+      <c r="R36" t="n">
+        <v>0.006940478529454215</v>
+      </c>
+      <c r="S36" t="n">
+        <v>274.2513636288905</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1039466137058933</v>
+      </c>
+      <c r="U36" t="n">
+        <v>293.397949120819</v>
       </c>
     </row>
     <row r="37">
@@ -3075,15 +3155,17 @@
       <c r="Q37" t="n">
         <v>0.0009057003101174462</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
+      <c r="R37" t="n">
+        <v>0.007851750173183051</v>
+      </c>
+      <c r="S37" t="n">
+        <v>262.3832283021977</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.06776913790716595</v>
+      </c>
+      <c r="U37" t="n">
+        <v>275.464486634296</v>
       </c>
     </row>
     <row r="38">
@@ -3146,15 +3228,17 @@
       <c r="Q38" t="n">
         <v>0.0008630670852242486</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
+      <c r="R38" t="n">
+        <v>0.006992552239309712</v>
+      </c>
+      <c r="S38" t="n">
+        <v>272.2752384546816</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.07524613817692086</v>
+      </c>
+      <c r="U38" t="n">
+        <v>287.549644301715</v>
       </c>
     </row>
     <row r="39">
@@ -3217,15 +3301,17 @@
       <c r="Q39" t="n">
         <v>0.0008016758350805884</v>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
+      <c r="R39" t="n">
+        <v>0.007078556099443474</v>
+      </c>
+      <c r="S39" t="n">
+        <v>253.2195283238483</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0791963072283015</v>
+      </c>
+      <c r="U39" t="n">
+        <v>265.015192851842</v>
       </c>
     </row>
     <row r="40">
@@ -3288,15 +3374,17 @@
       <c r="Q40" t="n">
         <v>1.049680261430187e-05</v>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
+      <c r="R40" t="n">
+        <v>0.005709563271638576</v>
+      </c>
+      <c r="S40" t="n">
+        <v>213.2409893003532</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0304411103719273</v>
+      </c>
+      <c r="U40" t="n">
+        <v>216.514566785978</v>
       </c>
     </row>
     <row r="41">
@@ -3359,15 +3447,17 @@
       <c r="Q41" t="n">
         <v>0.0001231640292093314</v>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
+      <c r="R41" t="n">
+        <v>0.006101346774042363</v>
+      </c>
+      <c r="S41" t="n">
+        <v>213.6768874072478</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.03402964946458783</v>
+      </c>
+      <c r="U41" t="n">
+        <v>217.172642097812</v>
       </c>
     </row>
     <row r="42">
@@ -3430,15 +3520,17 @@
       <c r="Q42" t="n">
         <v>0.0007330792019057392</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
+      <c r="R42" t="n">
+        <v>0.006079483160420184</v>
+      </c>
+      <c r="S42" t="n">
+        <v>229.7727133278009</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.04339486322370684</v>
+      </c>
+      <c r="U42" t="n">
+        <v>240.849767014709</v>
       </c>
     </row>
     <row r="43">
@@ -3501,15 +3593,17 @@
       <c r="Q43" t="n">
         <v>0.000875812239462738</v>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
+      <c r="R43" t="n">
+        <v>0.006898064852333649</v>
+      </c>
+      <c r="S43" t="n">
+        <v>231.3714214804136</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.04904562034392084</v>
+      </c>
+      <c r="U43" t="n">
+        <v>240.674565948934</v>
       </c>
     </row>
     <row r="44">
@@ -3572,15 +3666,17 @@
       <c r="Q44" t="n">
         <v>0.0007321093497570839</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
+      <c r="R44" t="n">
+        <v>0.006805946797575814</v>
+      </c>
+      <c r="S44" t="n">
+        <v>229.4190700061421</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.04047712239809449</v>
+      </c>
+      <c r="U44" t="n">
+        <v>237.543726708187</v>
       </c>
     </row>
     <row r="45">
@@ -3643,15 +3739,17 @@
       <c r="Q45" t="n">
         <v>0.001030591323611097</v>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
+      <c r="R45" t="n">
+        <v>0.007290473730071174</v>
+      </c>
+      <c r="S45" t="n">
+        <v>230.1828185656784</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0391739557928488</v>
+      </c>
+      <c r="U45" t="n">
+        <v>236.712298530189</v>
       </c>
     </row>
     <row r="46">
@@ -3714,15 +3812,17 @@
       <c r="Q46" t="n">
         <v>0.0004840251368253188</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
+      <c r="R46" t="n">
+        <v>0.006074571574026012</v>
+      </c>
+      <c r="S46" t="n">
+        <v>197.3630039470384</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.03642337811914912</v>
+      </c>
+      <c r="U46" t="n">
+        <v>202.543443662674</v>
       </c>
     </row>
     <row r="47">
@@ -3785,15 +3885,17 @@
       <c r="Q47" t="n">
         <v>0.0005983305746827686</v>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
+      <c r="R47" t="n">
+        <v>0.006086361557137697</v>
+      </c>
+      <c r="S47" t="n">
+        <v>216.3469303180482</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.03656730470412467</v>
+      </c>
+      <c r="U47" t="n">
+        <v>221.255129744395</v>
       </c>
     </row>
     <row r="48">
@@ -3856,15 +3958,17 @@
       <c r="Q48" t="n">
         <v>8.460631615250054e-05</v>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
+      <c r="R48" t="n">
+        <v>0.006751154581737274</v>
+      </c>
+      <c r="S48" t="n">
+        <v>247.599711952659</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0512976328902893</v>
+      </c>
+      <c r="U48" t="n">
+        <v>255.363733076386</v>
       </c>
     </row>
     <row r="49">
@@ -3927,15 +4031,17 @@
       <c r="Q49" t="n">
         <v>0.0008567276039679844</v>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
+      <c r="R49" t="n">
+        <v>0.007265361413355857</v>
+      </c>
+      <c r="S49" t="n">
+        <v>240.5958381886858</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.006497023365769584</v>
+      </c>
+      <c r="U49" t="n">
+        <v>241.10099190058</v>
       </c>
     </row>
     <row r="50">
@@ -3998,15 +4104,17 @@
       <c r="Q50" t="n">
         <v>0.0002699520485847642</v>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
+      <c r="R50" t="n">
+        <v>0.006820531552530755</v>
+      </c>
+      <c r="S50" t="n">
+        <v>254.6306228924357</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.04118873217523027</v>
+      </c>
+      <c r="U50" t="n">
+        <v>259.309388683401</v>
       </c>
     </row>
     <row r="51">
@@ -4069,15 +4177,17 @@
       <c r="Q51" t="n">
         <v>0.001260259507802939</v>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
+      <c r="R51" t="n">
+        <v>0.007960622345647822</v>
+      </c>
+      <c r="S51" t="n">
+        <v>241.3922089625397</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.008242619041144239</v>
+      </c>
+      <c r="U51" t="n">
+        <v>241.484548491853</v>
       </c>
     </row>
     <row r="52">
@@ -4144,15 +4254,17 @@
       <c r="Q52" t="n">
         <v>0.00132275994714398</v>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
-        </is>
+      <c r="R52" t="n">
+        <v>0.006346293711635107</v>
+      </c>
+      <c r="S52" t="n">
+        <v>191.2939523065533</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.00600200521670768</v>
+      </c>
+      <c r="U52" t="n">
+        <v>191.370191541496</v>
       </c>
     </row>
     <row r="53">
@@ -4215,15 +4327,17 @@
       <c r="Q53" t="n">
         <v>0.0005956601279578689</v>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
+      <c r="R53" t="n">
+        <v>0.005455781228274737</v>
+      </c>
+      <c r="S53" t="n">
+        <v>186.7653953109622</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.006136977316196669</v>
+      </c>
+      <c r="U53" t="n">
+        <v>187.063802254395</v>
       </c>
     </row>
     <row r="54">
@@ -4286,15 +4400,17 @@
       <c r="Q54" t="n">
         <v>0.0002364311953404587</v>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
+      <c r="R54" t="n">
+        <v>0.004653991672311814</v>
+      </c>
+      <c r="S54" t="n">
+        <v>153.961703875818</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.006367422273143558</v>
+      </c>
+      <c r="U54" t="n">
+        <v>155.542029266887</v>
       </c>
     </row>
     <row r="55">
@@ -4357,15 +4473,17 @@
       <c r="Q55" t="n">
         <v>6.444663434220649e-05</v>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
+      <c r="R55" t="n">
+        <v>0.005408804394300856</v>
+      </c>
+      <c r="S55" t="n">
+        <v>186.3720114492982</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.005961127594607606</v>
+      </c>
+      <c r="U55" t="n">
+        <v>186.424224049047</v>
       </c>
     </row>
     <row r="56">
@@ -4428,15 +4546,17 @@
       <c r="Q56" t="n">
         <v>0.0005357913646937737</v>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
+      <c r="R56" t="n">
+        <v>0.005740667863448074</v>
+      </c>
+      <c r="S56" t="n">
+        <v>187.3918003496629</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.006069660719238274</v>
+      </c>
+      <c r="U56" t="n">
+        <v>187.450289031598</v>
       </c>
     </row>
     <row r="57">
@@ -4499,15 +4619,17 @@
       <c r="Q57" t="n">
         <v>0.0001747938059600222</v>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
+      <c r="R57" t="n">
+        <v>0.005291547287762345</v>
+      </c>
+      <c r="S57" t="n">
+        <v>191.9504738433116</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.004750452684039422</v>
+      </c>
+      <c r="U57" t="n">
+        <v>192.145019792861</v>
       </c>
     </row>
     <row r="58">
@@ -4570,15 +4692,17 @@
       <c r="Q58" t="n">
         <v>0.001127086786231615</v>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
+      <c r="R58" t="n">
+        <v>0.006582794824301516</v>
+      </c>
+      <c r="S58" t="n">
+        <v>202.8902280586657</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.01307175397844072</v>
+      </c>
+      <c r="U58" t="n">
+        <v>204.264655235437</v>
       </c>
     </row>
     <row r="59">
@@ -4645,15 +4769,17 @@
       <c r="Q59" t="n">
         <v>0.001142736282227179</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
-        </is>
+      <c r="R59" t="n">
+        <v>0.006632619059514852</v>
+      </c>
+      <c r="S59" t="n">
+        <v>200.5978204731842</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.01207331893905818</v>
+      </c>
+      <c r="U59" t="n">
+        <v>202.162945055175</v>
       </c>
     </row>
     <row r="60">
@@ -4716,15 +4842,17 @@
       <c r="Q60" t="n">
         <v>0.0002063811979691773</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
+      <c r="R60" t="n">
+        <v>0.005803834383658227</v>
+      </c>
+      <c r="S60" t="n">
+        <v>198.9807240515658</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.01485101692437998</v>
+      </c>
+      <c r="U60" t="n">
+        <v>202.03588317029</v>
       </c>
     </row>
     <row r="61">
@@ -4787,15 +4915,17 @@
       <c r="Q61" t="n">
         <v>0.0003618505727106058</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
+      <c r="R61" t="n">
+        <v>0.005737648247877516</v>
+      </c>
+      <c r="S61" t="n">
+        <v>205.9427935256723</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.01167385278745861</v>
+      </c>
+      <c r="U61" t="n">
+        <v>209.137978876701</v>
       </c>
     </row>
     <row r="62">
@@ -4858,15 +4988,17 @@
       <c r="Q62" t="n">
         <v>0.0009129031790100989</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[0.00663551]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[188.02936756]</t>
-        </is>
+      <c r="R62" t="n">
+        <v>0.006635512021630569</v>
+      </c>
+      <c r="S62" t="n">
+        <v>188.0293675592692</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0125276350596358</v>
+      </c>
+      <c r="U62" t="n">
+        <v>189.531829382623</v>
       </c>
     </row>
     <row r="63">
@@ -4929,15 +5061,17 @@
       <c r="Q63" t="n">
         <v>-1.666305095732092e-05</v>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
+      <c r="R63" t="n">
+        <v>0.005783477422261261</v>
+      </c>
+      <c r="S63" t="n">
+        <v>193.9078331451065</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.01022459388214218</v>
+      </c>
+      <c r="U63" t="n">
+        <v>195.427940959688</v>
       </c>
     </row>
     <row r="64">
@@ -5000,15 +5134,17 @@
       <c r="Q64" t="n">
         <v>-5.101728079533185e-05</v>
       </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
+      <c r="R64" t="n">
+        <v>0.005669044888643195</v>
+      </c>
+      <c r="S64" t="n">
+        <v>182.0779380765711</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.009011824012097068</v>
+      </c>
+      <c r="U64" t="n">
+        <v>183.619171087842</v>
       </c>
     </row>
     <row r="65">
@@ -5071,15 +5207,17 @@
       <c r="Q65" t="n">
         <v>1.674164147798338e-06</v>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
+      <c r="R65" t="n">
+        <v>0.005793306344620133</v>
+      </c>
+      <c r="S65" t="n">
+        <v>186.2358712124743</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.008849549396020399</v>
+      </c>
+      <c r="U65" t="n">
+        <v>187.535587283919</v>
       </c>
     </row>
     <row r="66">
@@ -5146,15 +5284,17 @@
       <c r="Q66" t="n">
         <v>9.552114163655697e-05</v>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
-        </is>
+      <c r="R66" t="n">
+        <v>0.005815206931334676</v>
+      </c>
+      <c r="S66" t="n">
+        <v>184.2811318223662</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.008711586469099059</v>
+      </c>
+      <c r="U66" t="n">
+        <v>185.133067248502</v>
       </c>
     </row>
     <row r="67">
@@ -5217,15 +5357,17 @@
       <c r="Q67" t="n">
         <v>0.001640142602827623</v>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
+      <c r="R67" t="n">
+        <v>0.006813778342915136</v>
+      </c>
+      <c r="S67" t="n">
+        <v>203.7985725903647</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.01550590806628042</v>
+      </c>
+      <c r="U67" t="n">
+        <v>210.466086428666</v>
       </c>
     </row>
     <row r="68">
@@ -5292,15 +5434,17 @@
       <c r="Q68" t="n">
         <v>0.0008713315624624507</v>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
-        </is>
+      <c r="R68" t="n">
+        <v>0.006990320595614026</v>
+      </c>
+      <c r="S68" t="n">
+        <v>204.6569657797569</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.007071893132006251</v>
+      </c>
+      <c r="U68" t="n">
+        <v>204.657485228647</v>
       </c>
     </row>
     <row r="69">
@@ -5363,15 +5507,17 @@
       <c r="Q69" t="n">
         <v>0.0008277733694668681</v>
       </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
+      <c r="R69" t="n">
+        <v>0.0071110979263226</v>
+      </c>
+      <c r="S69" t="n">
+        <v>222.924745775949</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.01145801644128087</v>
+      </c>
+      <c r="U69" t="n">
+        <v>224.872007907994</v>
       </c>
     </row>
     <row r="70">
@@ -5434,15 +5580,17 @@
       <c r="Q70" t="n">
         <v>0.0008636320765332151</v>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
+      <c r="R70" t="n">
+        <v>0.007349302068520335</v>
+      </c>
+      <c r="S70" t="n">
+        <v>211.2839259816319</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.007606621553771215</v>
+      </c>
+      <c r="U70" t="n">
+        <v>211.331962991235</v>
       </c>
     </row>
     <row r="71">
@@ -5505,15 +5653,17 @@
       <c r="Q71" t="n">
         <v>0.0003898922701446438</v>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
+      <c r="R71" t="n">
+        <v>0.00546613076882481</v>
+      </c>
+      <c r="S71" t="n">
+        <v>129.6889121000877</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.007799409260379744</v>
+      </c>
+      <c r="U71" t="n">
+        <v>134.69393694681</v>
       </c>
     </row>
     <row r="72">
@@ -5565,7 +5715,7 @@
         <v>47.3625404782615</v>
       </c>
       <c r="N72" t="n">
-        <v>42175.08103243844</v>
+        <v>42175.08103243845</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5574,17 +5724,19 @@
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>0.0006093202581949112</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
+        <v>0.0006093202581949108</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.005141775461653572</v>
+      </c>
+      <c r="S72" t="n">
+        <v>132.5046346809661</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.00634969439522871</v>
+      </c>
+      <c r="U72" t="n">
+        <v>133.309917226322</v>
       </c>
     </row>
     <row r="73">
@@ -5647,15 +5799,17 @@
       <c r="Q73" t="n">
         <v>0.0008211559912235707</v>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
+      <c r="R73" t="n">
+        <v>0.006056757265215473</v>
+      </c>
+      <c r="S73" t="n">
+        <v>141.6087878107656</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.006845716453860471</v>
+      </c>
+      <c r="U73" t="n">
+        <v>141.780138833582</v>
       </c>
     </row>
     <row r="74">
@@ -5718,15 +5872,17 @@
       <c r="Q74" t="n">
         <v>0.0007788589957005581</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
+      <c r="R74" t="n">
+        <v>0.00557442890688067</v>
+      </c>
+      <c r="S74" t="n">
+        <v>136.2191649697395</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.007189168888577158</v>
+      </c>
+      <c r="U74" t="n">
+        <v>136.660030904845</v>
       </c>
     </row>
     <row r="75">
@@ -5789,15 +5945,17 @@
       <c r="Q75" t="n">
         <v>0.0005373300618622199</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
+      <c r="R75" t="n">
+        <v>0.004621107738568818</v>
+      </c>
+      <c r="S75" t="n">
+        <v>141.2236294072566</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.006629490100595221</v>
+      </c>
+      <c r="U75" t="n">
+        <v>142.958823169674</v>
       </c>
     </row>
     <row r="76">
@@ -5860,15 +6018,17 @@
       <c r="Q76" t="n">
         <v>0.001074375897386028</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
+      <c r="R76" t="n">
+        <v>0.00564098133698432</v>
+      </c>
+      <c r="S76" t="n">
+        <v>136.3471848029357</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.007175549824161928</v>
+      </c>
+      <c r="U76" t="n">
+        <v>137.179821141542</v>
       </c>
     </row>
     <row r="77">
@@ -5931,15 +6091,17 @@
       <c r="Q77" t="n">
         <v>0.0006566808991932407</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
+      <c r="R77" t="n">
+        <v>0.005330352662962963</v>
+      </c>
+      <c r="S77" t="n">
+        <v>130.0341509768202</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.006219257711500141</v>
+      </c>
+      <c r="U77" t="n">
+        <v>130.664513249855</v>
       </c>
     </row>
     <row r="78">
@@ -6002,15 +6164,17 @@
       <c r="Q78" t="n">
         <v>0.001021084008256706</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
+      <c r="R78" t="n">
+        <v>0.005803303453432615</v>
+      </c>
+      <c r="S78" t="n">
+        <v>143.951255063073</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.006927624270495906</v>
+      </c>
+      <c r="U78" t="n">
+        <v>144.414772365256</v>
       </c>
     </row>
     <row r="79">
@@ -6073,15 +6237,17 @@
       <c r="Q79" t="n">
         <v>0.0001476417332973139</v>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
+      <c r="R79" t="n">
+        <v>0.005368738589116732</v>
+      </c>
+      <c r="S79" t="n">
+        <v>145.6005292377227</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.007845307566702913</v>
+      </c>
+      <c r="U79" t="n">
+        <v>148.580738463673</v>
       </c>
     </row>
     <row r="80">
@@ -6144,15 +6310,17 @@
       <c r="Q80" t="n">
         <v>0.0006196032013576478</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
+      <c r="R80" t="n">
+        <v>0.005926556948214083</v>
+      </c>
+      <c r="S80" t="n">
+        <v>139.2956296195097</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.006640548661777547</v>
+      </c>
+      <c r="U80" t="n">
+        <v>139.448240759938</v>
       </c>
     </row>
     <row r="81">
@@ -6215,15 +6383,17 @@
       <c r="Q81" t="n">
         <v>0.0002125575271850833</v>
       </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
+      <c r="R81" t="n">
+        <v>0.005808227632039806</v>
+      </c>
+      <c r="S81" t="n">
+        <v>166.6085872526358</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.006633700577796983</v>
+      </c>
+      <c r="U81" t="n">
+        <v>166.955090490534</v>
       </c>
     </row>
     <row r="82">
@@ -6286,15 +6456,17 @@
       <c r="Q82" t="n">
         <v>0.000333785642721991</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
+      <c r="R82" t="n">
+        <v>0.005073806151259936</v>
+      </c>
+      <c r="S82" t="n">
+        <v>144.6287458969511</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.006315050455573591</v>
+      </c>
+      <c r="U82" t="n">
+        <v>145.695282847335</v>
       </c>
     </row>
     <row r="83">
@@ -6357,15 +6529,17 @@
       <c r="Q83" t="n">
         <v>0.0009347059551158865</v>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>[0.0041256]</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>[69.54697523]</t>
-        </is>
+      <c r="R83" t="n">
+        <v>0.004125603225819556</v>
+      </c>
+      <c r="S83" t="n">
+        <v>69.54697523046757</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.01062249189701809</v>
+      </c>
+      <c r="U83" t="n">
+        <v>70.754951381214</v>
       </c>
     </row>
     <row r="84">
@@ -6428,15 +6602,17 @@
       <c r="Q84" t="n">
         <v>-0.0001436401650030661</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
+      <c r="R84" t="n">
+        <v>0.003572896668335576</v>
+      </c>
+      <c r="S84" t="n">
+        <v>78.98547761406947</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.007440856435661033</v>
+      </c>
+      <c r="U84" t="n">
+        <v>80.145734222926</v>
       </c>
     </row>
     <row r="85">
@@ -6499,15 +6675,17 @@
       <c r="Q85" t="n">
         <v>0.0001791885963953713</v>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
+      <c r="R85" t="n">
+        <v>0.004013207649416292</v>
+      </c>
+      <c r="S85" t="n">
+        <v>64.67745757601358</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.005221002964485771</v>
+      </c>
+      <c r="U85" t="n">
+        <v>64.900513332527</v>
       </c>
     </row>
     <row r="86">
@@ -6553,13 +6731,13 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684951</v>
+        <v>0.0006235740665684949</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290324</v>
+        <v>53428.72227290325</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6568,17 +6746,19 @@
       </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>9.602688302589506e-05</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
+        <v>9.602688302589484e-05</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.00356226783994753</v>
+      </c>
+      <c r="S86" t="n">
+        <v>83.46997453644505</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.005442698321062894</v>
+      </c>
+      <c r="U86" t="n">
+        <v>83.72798804076319</v>
       </c>
     </row>
     <row r="87">
@@ -6641,15 +6821,17 @@
       <c r="Q87" t="n">
         <v>-0.0009169705344778045</v>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
+      <c r="R87" t="n">
+        <v>0.003842934907925612</v>
+      </c>
+      <c r="S87" t="n">
+        <v>79.88715192467411</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.008634918362270396</v>
+      </c>
+      <c r="U87" t="n">
+        <v>84.5334661269134</v>
       </c>
     </row>
     <row r="88">
@@ -6712,15 +6894,17 @@
       <c r="Q88" t="n">
         <v>0.0001588269294999108</v>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
+      <c r="R88" t="n">
+        <v>0.003312626263537214</v>
+      </c>
+      <c r="S88" t="n">
+        <v>80.71874585467015</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.005567210069652111</v>
+      </c>
+      <c r="U88" t="n">
+        <v>81.0843557964908</v>
       </c>
     </row>
     <row r="89">
@@ -6783,15 +6967,17 @@
       <c r="Q89" t="n">
         <v>0.0003953219097204959</v>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
+      <c r="R89" t="n">
+        <v>0.00411088376482903</v>
+      </c>
+      <c r="S89" t="n">
+        <v>85.28803901052348</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.007758465815029795</v>
+      </c>
+      <c r="U89" t="n">
+        <v>86.0178561758589</v>
       </c>
     </row>
     <row r="90">
@@ -6854,15 +7040,17 @@
       <c r="Q90" t="n">
         <v>0.000458888064130165</v>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
+      <c r="R90" t="n">
+        <v>0.004181172884509807</v>
+      </c>
+      <c r="S90" t="n">
+        <v>91.40909649393312</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.006129862488138665</v>
+      </c>
+      <c r="U90" t="n">
+        <v>92.5678234692284</v>
       </c>
     </row>
     <row r="91">
@@ -6925,15 +7113,17 @@
       <c r="Q91" t="n">
         <v>-1.897273397861131e-05</v>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
+      <c r="R91" t="n">
+        <v>0.003845015090834731</v>
+      </c>
+      <c r="S91" t="n">
+        <v>100.3241003734969</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.005400590477398788</v>
+      </c>
+      <c r="U91" t="n">
+        <v>101.135274005206</v>
       </c>
     </row>
     <row r="92">
@@ -6996,15 +7186,17 @@
       <c r="Q92" t="n">
         <v>-0.0001868859276654517</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
+      <c r="R92" t="n">
+        <v>0.003824251563732763</v>
+      </c>
+      <c r="S92" t="n">
+        <v>79.79221366062833</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.008370099529723349</v>
+      </c>
+      <c r="U92" t="n">
+        <v>80.7594992735058</v>
       </c>
     </row>
     <row r="93">
@@ -7067,15 +7259,17 @@
       <c r="Q93" t="n">
         <v>0.001262320824785163</v>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[0.00485937]</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>[82.96977647]</t>
-        </is>
+      <c r="R93" t="n">
+        <v>0.004859365869035659</v>
+      </c>
+      <c r="S93" t="n">
+        <v>82.9697764667787</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.007047322469866863</v>
+      </c>
+      <c r="U93" t="n">
+        <v>84.22521596624161</v>
       </c>
     </row>
     <row r="94">
@@ -7138,15 +7332,17 @@
       <c r="Q94" t="n">
         <v>-0.0003254508736255729</v>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
+      <c r="R94" t="n">
+        <v>0.003921538998074458</v>
+      </c>
+      <c r="S94" t="n">
+        <v>87.14115823124914</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.007259205002188027</v>
+      </c>
+      <c r="U94" t="n">
+        <v>90.1074544338652</v>
       </c>
     </row>
     <row r="95">
@@ -7209,15 +7405,17 @@
       <c r="Q95" t="n">
         <v>-0.0002985639296833897</v>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
+      <c r="R95" t="n">
+        <v>0.003769177417556691</v>
+      </c>
+      <c r="S95" t="n">
+        <v>80.63825521521659</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.00729450171126801</v>
+      </c>
+      <c r="U95" t="n">
+        <v>81.9783041491569</v>
       </c>
     </row>
     <row r="96">
@@ -7280,15 +7478,17 @@
       <c r="Q96" t="n">
         <v>0.0008890854041372103</v>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
+      <c r="R96" t="n">
+        <v>0.003155830567605923</v>
+      </c>
+      <c r="S96" t="n">
+        <v>82.86657250825829</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.005254134791008711</v>
+      </c>
+      <c r="U96" t="n">
+        <v>83.61551667354649</v>
       </c>
     </row>
     <row r="97">
@@ -7351,15 +7551,17 @@
       <c r="Q97" t="n">
         <v>-0.000222000120179656</v>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
+      <c r="R97" t="n">
+        <v>0.00371970328915479</v>
+      </c>
+      <c r="S97" t="n">
+        <v>75.1764134278813</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.009032348095043243</v>
+      </c>
+      <c r="U97" t="n">
+        <v>78.50999369981329</v>
       </c>
     </row>
     <row r="98">
@@ -7422,15 +7624,17 @@
       <c r="Q98" t="n">
         <v>0.002770838845663657</v>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
+      <c r="R98" t="n">
+        <v>0.003668388214462446</v>
+      </c>
+      <c r="S98" t="n">
+        <v>79.89202840394329</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.007558006757768757</v>
+      </c>
+      <c r="U98" t="n">
+        <v>82.1477498523379</v>
       </c>
     </row>
     <row r="99">
@@ -7493,15 +7697,17 @@
       <c r="Q99" t="n">
         <v>0.001264873486175366</v>
       </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[0.00559269]</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>[87.23453043]</t>
-        </is>
+      <c r="R99" t="n">
+        <v>0.005592694443305021</v>
+      </c>
+      <c r="S99" t="n">
+        <v>87.23453042602983</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.007277652320397766</v>
+      </c>
+      <c r="U99" t="n">
+        <v>87.7212251518954</v>
       </c>
     </row>
     <row r="100">
@@ -7568,15 +7774,17 @@
       <c r="Q100" t="n">
         <v>0.001600669794872614</v>
       </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[0.00581256]</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>[88.79472099]</t>
-        </is>
+      <c r="R100" t="n">
+        <v>0.005812557635492952</v>
+      </c>
+      <c r="S100" t="n">
+        <v>88.79472099454641</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.01010092047234112</v>
+      </c>
+      <c r="U100" t="n">
+        <v>89.9980012086873</v>
       </c>
     </row>
     <row r="101">
@@ -7639,15 +7847,17 @@
       <c r="Q101" t="n">
         <v>0.0006138388323634388</v>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
+      <c r="R101" t="n">
+        <v>0.004796916024405892</v>
+      </c>
+      <c r="S101" t="n">
+        <v>92.92190034505387</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.006358843587689939</v>
+      </c>
+      <c r="U101" t="n">
+        <v>93.3946774514764</v>
       </c>
     </row>
   </sheetData>
